--- a/testing-results.xlsx
+++ b/testing-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,478 +503,410 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01645327531537174</v>
+        <v>0.03108694655641701</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03515682128981507</v>
+        <v>0.065887297021612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02823807734193569</v>
+        <v>0.03672051591144596</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01762720772537104</v>
+        <v>0.03265313841414937</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02644249421516981</v>
+        <v>0.04648946813548118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01768145485568592</v>
+        <v>0.02972696019758794</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01495084378934321</v>
+        <v>0.03014216036699227</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02682944100166247</v>
+        <v>0.04498024546155378</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01624574771453654</v>
+        <v>0.03603459700709387</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02043205205151438</v>
+        <v>0.03705094730193156</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0431764786261228</v>
+        <v>0.06006992092797872</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04682220136639532</v>
+        <v>0.03947151695715157</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03822505306922604</v>
+        <v>0.0264215837680323</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03006482326426854</v>
+        <v>0.0297769900262445</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02827641934929998</v>
+        <v>0.02706271712371842</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03173264349311512</v>
+        <v>0.03081746575547267</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03358371503021004</v>
+        <v>0.02753441320405002</v>
       </c>
       <c r="R2" t="n">
-        <v>0.027192544409105</v>
+        <v>0.03887309207413669</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02857108130826215</v>
+        <v>0.03568653277291464</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0317816012963248</v>
+        <v>0.04160891400003843</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02981395487577135</v>
+        <v>0.03506748607670661</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03513357217710007</v>
+        <v>0.03168077587450605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.04688852684498709</v>
+        <v>0.02709225295695079</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05314438150345504</v>
+        <v>0.05496358790253427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0362386863203431</v>
+        <v>0.01947301475145514</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0396300318480475</v>
+        <v>0.02804117359647752</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04676040916501949</v>
+        <v>0.03355604996352142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03983356280308953</v>
+        <v>0.02464862986420147</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04203886211960831</v>
+        <v>0.02415955054950467</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03945585076646843</v>
+        <v>0.02373881344753305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04790772251735238</v>
+        <v>0.03297621453169582</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04225356572518732</v>
+        <v>0.03392158746869325</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04503154442967749</v>
+        <v>0.03374952335471766</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04559304495497742</v>
+        <v>0.02577169989167825</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04371293878994591</v>
+        <v>0.02854960659990682</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04431834536520825</v>
+        <v>0.02516440048612362</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03814850543239585</v>
+        <v>0.02356278427677932</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0409963582834293</v>
+        <v>0.01916938158409075</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04653545867859916</v>
+        <v>0.03086396800406191</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03682370615878467</v>
+        <v>0.02251380692691281</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03583235767903643</v>
+        <v>0.01389552526833622</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03720456069371757</v>
+        <v>0.01723623907437023</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03797520908607528</v>
+        <v>0.01531865097757828</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04138038934208575</v>
+        <v>0.02324049938251477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05339764939438941</v>
+        <v>0.04729980864706478</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07427451031561419</v>
+        <v>0.07975605997277271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0525730216142779</v>
+        <v>0.0558443176305853</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04748037594754362</v>
+        <v>0.0537259653644419</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06266861624431491</v>
+        <v>0.05885728040016244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04522351121058783</v>
+        <v>0.05322915738679514</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04663769072820131</v>
+        <v>0.04662431491672087</v>
       </c>
       <c r="H4" t="n">
-        <v>0.053647225747648</v>
+        <v>0.05927850864399502</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05427735775548463</v>
+        <v>0.0583836293277574</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05706174480670253</v>
+        <v>0.05824404364850137</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05516249529893655</v>
+        <v>0.0599707318584941</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02088848227476328</v>
+        <v>0.03845866915189626</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02089872869344783</v>
+        <v>0.04202619775669308</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03780942194602706</v>
+        <v>0.04079136165356982</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03510108547762981</v>
+        <v>0.0445324197998409</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04156660905209362</v>
+        <v>0.04024835619606033</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0286127186243671</v>
+        <v>0.04287069173453061</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04839104384493605</v>
+        <v>0.04990489447562568</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03519957586773814</v>
+        <v>0.04963146471845654</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02819425409562014</v>
+        <v>0.0559368963915411</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03991405288807413</v>
+        <v>0.04771639214142925</v>
       </c>
       <c r="V4" t="n">
-        <v>0.029810469106631</v>
+        <v>0.04277622755212709</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.04077195517234066</v>
+        <v>0.02240492590118279</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04454987805130969</v>
+        <v>0.04766526999088263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02598398138414412</v>
+        <v>0.02015856184905771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03378351208348545</v>
+        <v>0.02591242506851219</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0396663721740221</v>
+        <v>0.02498806203672944</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03406515264578583</v>
+        <v>0.02701886129170041</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0375727590768065</v>
+        <v>0.02237138950829909</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03056867609131678</v>
+        <v>0.01847556126653765</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04195821896166684</v>
+        <v>0.0321213553125357</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03577581176875438</v>
+        <v>0.03106315684929634</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03905071979598551</v>
+        <v>0.02195806703572441</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04936305775593026</v>
+        <v>0.02434121550921398</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04994362657780809</v>
+        <v>0.03502283912210074</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04592115148078177</v>
+        <v>0.03036501483190959</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03881244282171102</v>
+        <v>0.03083240050788513</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04046937303428289</v>
+        <v>0.01885153516823391</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04890258394648056</v>
+        <v>0.03783365951590528</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03481386118008926</v>
+        <v>0.01573457407237198</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03611292914915511</v>
+        <v>0.01757208437047572</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04327853005811015</v>
+        <v>0.02138789359599911</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03775890407115387</v>
+        <v>0.02135366202031225</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04486972715225545</v>
+        <v>0.02927943799658818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04142207163141454</v>
+        <v>0.02750393159458297</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03686679764802094</v>
+        <v>0.05761016838788896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04739192930315356</v>
+        <v>0.0263278496350189</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0480349294361417</v>
+        <v>0.03184005290936893</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03532382837994394</v>
+        <v>0.03374717246627774</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04854387649247733</v>
+        <v>0.029221404714422</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04551078779350756</v>
+        <v>0.02626026390747564</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04510588394231785</v>
+        <v>0.02958495460611128</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04615365720244406</v>
+        <v>0.03639921546061504</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04065570792830773</v>
+        <v>0.03903881266016335</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05282554170289038</v>
+        <v>0.02653107411823898</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07393525072050071</v>
+        <v>0.01823625870943069</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06559880985378694</v>
+        <v>0.03057116624229443</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05049449488948081</v>
+        <v>0.02527654728192831</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05154918088895609</v>
+        <v>0.02708062763130655</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04906062453839138</v>
+        <v>0.01729821685143667</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06006619414532811</v>
+        <v>0.03128418445602537</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04025783143092507</v>
+        <v>0.02024403763078514</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05186804679117092</v>
+        <v>0.01792112288670457</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05676640153373651</v>
+        <v>0.02463559734575201</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04853898475243072</v>
+        <v>0.02066639927892238</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05873350125239365</v>
+        <v>0.02537734301145744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04799560747091618</v>
+        <v>0.03659516328792026</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05950770123629696</v>
+        <v>0.05603094521301047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04226881062526634</v>
+        <v>0.03263616248300711</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04154438363198167</v>
+        <v>0.03976533162504443</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04748069098205752</v>
+        <v>0.03627972169779847</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04076686964869011</v>
+        <v>0.03967016378413343</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04529127663749107</v>
+        <v>0.03534956482443364</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04201630422362931</v>
+        <v>0.02952927625821966</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05054576957803126</v>
+        <v>0.04415052414827243</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05019099714141321</v>
+        <v>0.04487163575123519</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02284014591592185</v>
+        <v>0.01808186885147521</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0370393295121484</v>
+        <v>0.02868471563321513</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04568702336434449</v>
+        <v>0.04435750761845653</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03519152752912362</v>
+        <v>0.03882229949543097</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03339976452447418</v>
+        <v>0.04091955854780203</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02895184431726773</v>
+        <v>0.03008581579050444</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03647458323719359</v>
+        <v>0.04589766198028267</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03663095698120512</v>
+        <v>0.02853911325100684</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03221777323129967</v>
+        <v>0.02823306672753248</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04305641432417381</v>
+        <v>0.03188363422381742</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03163614901643071</v>
+        <v>0.03062312351196979</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03613167893525886</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.0592830120544165</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.07669783929055315</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05544552262600227</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.05330563024069523</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06338714436717427</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.05091120578906454</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.05292853400198578</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.05429952441520419</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.06077459619141826</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.06354547896766986</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.04451111378201703</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02034105997976167</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.03517686466595308</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0381214603303334</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.03918547106113022</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.0388903238026515</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.03381629897280037</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.04984260903497303</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.03709764356363432</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.03811383675334615</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.03838824985589235</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.03068306696023684</v>
+        <v>0.03756703061481482</v>
       </c>
     </row>
   </sheetData>

--- a/testing-results.xlsx
+++ b/testing-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,452 +461,1281 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03108694655641701</v>
+        <v>0.01645328274620929</v>
       </c>
       <c r="B2" t="n">
-        <v>0.065887297021612</v>
+        <v>0.04688853898069832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03672051591144596</v>
+        <v>0.05339765259614405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03265313841414937</v>
+        <v>0.03281230087161641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04648946813548118</v>
+        <v>0.04115776399650311</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02972696019758794</v>
+        <v>0.04256558132326806</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03014216036699227</v>
+        <v>0.02675082762752317</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04498024546155378</v>
+        <v>0.02789562560563775</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03603459700709387</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.03705094730193156</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06006992092797872</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.03947151695715157</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0264215837680323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0297769900262445</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.02706271712371842</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.03081746575547267</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.02753441320405002</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.03887309207413669</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.03568653277291464</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.04160891400003843</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.03506748607670661</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.03168077587450605</v>
+        <v>0.02816840265759384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02709225295695079</v>
+        <v>0.03515681581353019</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05496358790253427</v>
+        <v>0.05314437445702625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01947301475145514</v>
+        <v>0.07427450274723846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02804117359647752</v>
+        <v>0.03853059377106587</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03355604996352142</v>
+        <v>0.04965983653297504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02464862986420147</v>
+        <v>0.04889090074230335</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02415955054950467</v>
+        <v>0.03112799006479676</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02373881344753305</v>
+        <v>0.03392804348725318</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03297621453169582</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03392158746869325</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.03374952335471766</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.02577169989167825</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.02854960659990682</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.02516440048612362</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.02356278427677932</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.01916938158409075</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.03086396800406191</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.02251380692691281</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01389552526833622</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.01723623907437023</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.01531865097757828</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.02324049938251477</v>
+        <v>0.04364772236397778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04729980864706478</v>
+        <v>0.0282380813656398</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07975605997277271</v>
+        <v>0.03623869399226638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0558443176305853</v>
+        <v>0.05257301715686659</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0537259653644419</v>
+        <v>0.02142077520798864</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05885728040016244</v>
+        <v>0.03385969067738993</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05322915738679514</v>
+        <v>0.02719878049312673</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04662431491672087</v>
+        <v>0.01605249933511474</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05927850864399502</v>
+        <v>0.01988659499835187</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0583836293277574</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.05824404364850137</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0599707318584941</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.03845866915189626</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.04202619775669308</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.04079136165356982</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0445324197998409</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.04024835619606033</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.04287069173453061</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.04990489447562568</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.04963146471845654</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0559368963915411</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.04771639214142925</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.04277622755212709</v>
+        <v>0.02265574200014067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02240492590118279</v>
+        <v>0.0176271997409617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04766526999088263</v>
+        <v>0.03963002602631154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02015856184905771</v>
+        <v>0.04748038006794313</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02591242506851219</v>
+        <v>0.03320185076507331</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02498806203672944</v>
+        <v>0.03647653584177414</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02701886129170041</v>
+        <v>0.03612090274652967</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02237138950829909</v>
+        <v>0.02774510012625661</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01847556126653765</v>
+        <v>0.02898363520914161</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0321213553125357</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.03106315684929634</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.02195806703572441</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.02434121550921398</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.03502283912210074</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.03036501483190959</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.03083240050788513</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.01885153516823391</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.03783365951590528</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.01573457407237198</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.01757208437047572</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.02138789359599911</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.02135366202031225</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.02927943799658818</v>
+        <v>0.0207088637152884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02750393159458297</v>
+        <v>0.02644248217068048</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05761016838788896</v>
+        <v>0.04676042757752111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0263278496350189</v>
+        <v>0.06266860776801493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03184005290936893</v>
+        <v>0.03383605565591635</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03374717246627774</v>
+        <v>0.03875549726308097</v>
       </c>
       <c r="F6" t="n">
-        <v>0.029221404714422</v>
+        <v>0.04014636701056387</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02626026390747564</v>
+        <v>0.02229211419653725</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02958495460611128</v>
+        <v>0.02709173227610267</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03639921546061504</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.03903881266016335</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.02653107411823898</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.01823625870943069</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.03057116624229443</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.02527654728192831</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.02708062763130655</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.01729821685143667</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.03128418445602537</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.02024403763078514</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.01792112288670457</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.02463559734575201</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.02066639927892238</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.02537734301145744</v>
+        <v>0.0308898867775941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.03659516328792026</v>
+        <v>0.01768146282228017</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05603094521301047</v>
+        <v>0.03983354934996406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03263616248300711</v>
+        <v>0.04522350544793889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03976533162504443</v>
+        <v>0.03314590002421861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03627972169779847</v>
+        <v>0.03629694395719289</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03967016378413343</v>
+        <v>0.03523172753877443</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03534956482443364</v>
+        <v>0.02769565956496528</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02952927625821966</v>
+        <v>0.02952521876640475</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04415052414827243</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.04487163575123519</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.01808186885147521</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.02868471563321513</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.04435750761845653</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.03882229949543097</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.04091955854780203</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.03008581579050444</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.04589766198028267</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.02853911325100684</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.02823306672753248</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.03188363422381742</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.03062312351196979</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.03756703061481482</v>
+        <v>0.01843170759024393</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.01495085070228905</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.04203885761271008</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04663769438310587</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03450756639949405</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04097645048932417</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03957202779152341</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02956627485630002</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03012499073054343</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02157601459374522</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.0268294488930116</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.03945585204542145</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05364723008203511</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02821885012049943</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03494179926454143</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03005493878431443</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01990826133686573</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02432466261417242</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.02107229260864785</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.01624574599325016</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04790772405651644</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05427735730702563</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03942017157133917</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04532665770000613</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.04531714784037532</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03418620595568272</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03547471822046565</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.02947703627958155</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.02043204437594463</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04225357640385834</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05706172636761491</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03172881785341004</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.04276326750572985</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04134437592284226</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02730591059636744</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.02717949952969637</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.02984002061724078</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.04317647715418881</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04503153579854621</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05516248818352631</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03762259531756246</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01453308872969998</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02480300905822617</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02263864459848277</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.03048770751114023</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.02334217070340746</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.04682218730648893</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.04559301706644193</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02088849034698596</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.05361266132337209</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.04436171323818388</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04289060459191326</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.05158752568299175</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.05056024559703853</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02801217498678636</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.03822505204593873</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.04371292888611451</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0208987230122423</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.05068580625783256</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.05008306249190191</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0489509824370395</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.05082917742368704</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.046597013506494</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.02923675430804198</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.03006483261743124</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04431834909614641</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03780941569758419</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04227974878523839</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0357071962967092</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04084610594404901</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03577684324155216</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.034250219658843</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0196886162135039</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.02827641674808891</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.03814850643744844</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0351010871207016</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03602235202889094</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.03254801945251487</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03515641331590261</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03130581522514843</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02969386730474883</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0153173343137001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.031732639852435</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.04099634561135049</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04156661482446453</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03683954892898859</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02720510162118786</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0329531592627013</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.02787841024772604</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02879221603735243</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01509564959430151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.03358372652876003</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.04653545767021768</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02861271990003313</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04715698409779465</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.03978058681726836</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04379256364727104</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0430299717594578</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04194354303701705</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.02270965670010033</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.02719255810018218</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03682371407132813</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.04839104583359517</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.02985402086176139</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.03075958532059973</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0328066435951818</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02096320793244867</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.02009252678944487</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01888355857638237</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.02857108663379965</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.03583235150803694</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03519956656481775</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03507970401196028</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.03159714417233358</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03196197513444667</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02979069361722363</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0285558755042794</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01063167229900088</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.03178160955419449</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.03720455241520027</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02819425228782604</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.04410514293669988</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.04540531082125178</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0436507530355286</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04328656169958808</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.03846999710166802</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02275050799345381</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.02981396064813572</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.03797520521075057</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.03991404770271285</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.03476682120063973</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.02990643141168541</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03194135851792307</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02745583541721049</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02710211059608415</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01281054201427638</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.03513358736107623</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.04138039830711728</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02981047718697465</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.04467144185556505</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0394416453103715</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04006012053421429</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04118328181941144</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03875131908295654</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0196259757001293</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0372673791502049</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.04152771099484613</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.04967518075798703</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.03154299055313097</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02450766394344213</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.027446972162843</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01942930254313081</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02306649080351612</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02052301109334719</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.03197989546113512</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0303643780136416</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.04542332299194819</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02225142636012555</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03522496242440185</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.03082721210667726</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02112517071021427</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01453949204098311</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02348797884793496</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.03053694000214647</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02711752918676238</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.03760109510388374</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02679245810316712</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.04014151050228369</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03466976389776353</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02962576948594503</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02118155787368444</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02329705972167039</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.03124595664374404</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.02512564985729189</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.04144446627280041</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0222752183251907</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03299197530816509</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.02451920207033669</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02147545393393428</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01688328805565144</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0166676301438993</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0357866056046869</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.02731981390340019</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04785079654223848</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.02093223268970362</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.03021117243187525</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02190365539153558</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01780699376252723</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.01507953318958997</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.02089730748866881</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.04146947169716226</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0338328511397876</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0569729263251126</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.02236391446417857</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.03022618813911178</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02003235467429517</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01250887841014245</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01640282291156964</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02577570984765884</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.03852209802500106</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.04135635417906233</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.06027591748748353</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.02643860923232494</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02987655231041978</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03005630654072546</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01126850549259017</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.01642043522748973</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.02894701407518658</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.03958328541924731</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04460895900756254</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05248026980232202</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0351400947771585</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02214446197844977</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02606391478084962</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.02068843783752259</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.02690169093976931</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02002746941932133</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.03724544063685858</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.03851525070699929</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.04949461795731108</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.03041146007978368</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.02366343846250023</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02456934444751306</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01831333354860783</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.02167035871854363</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01820674142739716</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.03232573501350698</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.03761921462231542</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04285550874916818</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03328890189928278</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.02990670162513922</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.03138980885723196</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.02565529157423664</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.02387471310589271</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01686868581940808</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.02708392120806633</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.03118018936050105</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03416247438113505</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.03131820752918898</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.03595142501379397</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.03219925767345219</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02946428473818619</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.02485257857076703</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01408617397053486</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.03144136160238951</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.02779992590226703</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03895976540507261</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.02117264955950826</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.03521272047810421</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0250842623047316</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0222418309720696</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.01806756521723468</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01745477928297986</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.04087927263896401</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.03408451651563722</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.06073354677265047</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01431604239539612</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.03885951197799483</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02798112223495215</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01351175812336569</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01074911160952707</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.03301347313182953</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.03498919378011488</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.03261337605839311</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.047254553875643</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.02192447308640112</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02774133782792631</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.01886640390733428</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01418308524867469</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.01705134269650862</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01654952507361488</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.03736892982444154</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.03775298707868319</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0580330444517192</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0205407596467511</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.03211964092924763</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02677181252088986</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.007813968048786375</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.01211031821578977</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.02729076238272086</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.0374259825764744</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.03158294245646442</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.05543966353645711</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01102551373903649</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.04328333360957792</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0308096949347722</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0175961675045317</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01023578629718946</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.03202412346501564</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.03253683859056782</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.03737433793335116</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.04188882724515228</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.02897340089633387</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.02548697205117406</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02509681950353583</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.02054617830105399</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.02318875430631566</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.01434254613933758</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.03605479230317826</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.03875821244289637</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.05356344498392111</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.02461736353574625</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.02709222695869116</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.02348257591620331</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01078420985155524</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.01667257130264385</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.02113675461940426</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.03720638072953059</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.03615085101869252</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05365872742735511</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01922728294317844</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02840426841064358</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.02157639780175554</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.008202400613949142</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.01458674374254918</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.02390072590227676</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.03493789576798523</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.03953839696028975</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.04446712851109429</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.03270593886387715</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02065106892972658</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.02450471760530549</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02140943782656733</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.02577652535460479</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.01374321836794711</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.03268004709879017</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.03405478270337907</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.04270209167040524</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.02765799940434115</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.02790687445433078</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02230696856252753</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0211178199610382</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.02253086549060057</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.01249882460170784</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.0348554440326112</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.03573171384010874</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.04874365291941762</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.02317226871121321</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0274027568274431</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.02255021644265984</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01293654980123706</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.01743662736962127</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01957136014186818</v>
       </c>
     </row>
   </sheetData>

--- a/testing-results.xlsx
+++ b/testing-results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,60 +464,1336 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01718313809728256</v>
+        <v>0.4418959072345788</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0405785382512448</v>
+        <v>0.7335480496377166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03829921562550088</v>
+        <v>0.8929905166594549</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03697876259241925</v>
+        <v>0.9820916828526094</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03691871410409651</v>
+        <v>0.8537640662219894</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0388369981019116</v>
+        <v>0.8969473045780361</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03220566632313532</v>
+        <v>0.8212466888325278</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03128482267402617</v>
+        <v>0.9594567030011396</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01793238021713776</v>
+        <v>0.9186201205941359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03844285962107072</v>
+        <v>0.5209087269513447</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04842225776480812</v>
+        <v>0.8518894236831479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02554842119901641</v>
+        <v>0.8891451282315986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05325240484916312</v>
+        <v>0.9863086749905947</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04571872157609629</v>
+        <v>0.8835948767885888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04759649097335862</v>
+        <v>0.9407172157262889</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0500471637658491</v>
+        <v>0.9420771217733107</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04847674253126863</v>
+        <v>0.9059685938962264</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02720484961485034</v>
+        <v>0.9376612434486922</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.4639910562998484</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8756700369057501</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8636647442727814</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.009129682621313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9047196979108276</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9221752003689978</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9291007181829286</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9612687892355957</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9966436827602552</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.4600992810699983</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8425522941964344</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9814643475103129</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.014744415531201</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9401719039076233</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9205677958933346</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9175290275939055</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9594038624374835</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.009564581541471</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.4804183957800741</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7655181481942552</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8873108318814744</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.976490797695684</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.845177284104993</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8616171728814255</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8929700589521273</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9720681823179822</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.028712840579127</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.3896974526458907</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8027341519537841</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.867744142110733</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.011906619227583</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8919032969894067</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.930669616722924</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8841692741723197</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9674470117508732</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.004089157974895</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4846509491980153</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8066704669258117</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8967943863873378</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9582644548065038</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8745813025088189</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9548212207646065</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.004088650532313</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9833560760070298</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9660305447153703</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.4004683732452416</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7738558276859128</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9147330251654082</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.036948764283295</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9480811006342128</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.944871800644718</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9066854506813505</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9501716829926472</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9633453378113571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.543034044858836</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8121288108044148</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8929502660710205</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9926780536861773</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9424892600690914</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.929416870649886</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9357034735617125</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.000721971390285</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.024368844500565</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.411416021451097</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8403793935127868</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8686564069827546</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.022395523102039</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8611637719351453</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8846503828373218</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9363679847032903</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9725100407127236</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9404743822937838</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.6117546377113805</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8290692589638544</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.04418556885561</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9704907112590507</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8504167993728615</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9967748826382633</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9320503651978355</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9418999601538682</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9026826023278915</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.5020978774447739</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7929691865748335</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9771943713473208</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9991359095941422</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8909116034314989</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9898397239618629</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.890407910996963</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9901311025334479</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9378722723432539</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.8842967941274307</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8918285395525921</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3874247629970633</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0390739287951</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.048330190955638</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9788937780312947</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.008828249954396</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9004420190980871</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.020017316479613</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9164210042149211</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8777709335908432</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4515065615054487</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.851905506070485</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8502228812886077</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8808802938666789</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8592562496667113</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.907162225645437</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.084609484535529</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.018780275996348</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.066948814145516</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9812153465324608</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9405551860538274</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9854738961735174</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8236078430770394</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8197764220196831</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.88628419453243</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2498913831275326</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.9840432350950521</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.103257792820037</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.093368310414263</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.003430438500295</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.002455869390214</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9201786095909481</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8896034765422326</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8868419147352529</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2019981778725601</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.019642460457639</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.038046097567871</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.030145789032433</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9875689425757369</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.977598448320952</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.86234279230788</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7992750231558068</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9521191840178845</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1959997067795963</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.9943284108424731</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.017839102128163</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.051023778682233</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.022322185978887</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9408009889936525</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8339475562855092</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7486864314384578</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9365272837372712</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2103591890272301</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.9694233798078508</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.010451241163203</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9470600598860525</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.044705126597333</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8992977932198088</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8725740709216152</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7295518940406109</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8999893372585059</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2366702092195182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.018106745989932</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.029617214520135</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.020030283577029</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.042494872991395</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9587599062365368</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7885910658643029</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7655126963672968</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8800248825980603</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2416496650094695</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.9644134585248492</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9990085788989916</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.07278333529001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.002074072975627</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8996995824875911</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7830967340519785</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7751377942436588</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9125762977839621</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1969900557499291</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.9683601671530857</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.085506375572161</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9556394369867417</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.020353342020272</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9621940207000558</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8658304547432616</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7436103517791302</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9502426729530585</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2305594122682793</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.9314151538576327</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.026618505067285</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.038093928159645</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.004496957387815</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9195064372002997</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7963453015688154</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8177207950411106</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9154848835197275</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1294746043613262</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.9663495305351915</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.064822190534723</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.051755622220719</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.02797887963327</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9044054007160253</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.909156478804438</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8501000632435303</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8443836569490899</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1333705949647577</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.090501338120809</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9985102681796691</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.032933856870045</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.023378210429841</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9911561061701945</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8008106995410551</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9898960339512299</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2681406468328381</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8753698395894494</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.073605011402897</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.012082679456249</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.06230696561028</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9281535961313029</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9607262804788247</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7044668988479954</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9243132043668846</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2725038205459663</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8641546521144374</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.9656686327541409</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9947357080403729</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.063952523144815</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9377237781426829</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9902398410329388</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7841847431598838</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9011194888176037</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2603206933266328</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8713007012047613</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.031297337898996</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.040609863641323</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.043323104277008</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9340959035519195</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9204424286276527</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7123875777607905</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9606445048641703</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.241384480472624</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8438846787863008</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.049881762905462</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.024886885565798</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.028092005214216</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9234275112556087</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9282851811476489</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7595581438919178</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9400948018437465</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3310297607534129</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8535112729690194</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.060110437001545</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.036637011497812</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9612225639792308</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.981295890840447</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9955774440266734</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8004967856870262</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9259736466462922</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.2464686743217803</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8712659691991121</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.058349910009172</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9826488479774448</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.027142692600227</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9606411157183259</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9064562736398099</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7643497716002767</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9279000818847237</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.2545945595297606</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.802937831139837</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.030598890818708</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.034843756807222</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.099811618408326</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9981155619336699</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.904666448418334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6873695117248402</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9033033314725974</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3350886139024747</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.830797781263627</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.077963466660985</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.063996105946901</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.055653362111118</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.02103092834698</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9116279536605119</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7461021319476202</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9150106036418045</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.3275181825137377</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8109646154997781</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.011768933723405</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.048139912569749</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.009998942416343</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.991510660446096</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8549486358445217</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7559032429271729</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9754110373619468</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.2842150865456305</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8676074948363218</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.033880723361766</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.036113922803545</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.051974458363432</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9315762671897979</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.954955665676898</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8538726345462764</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9577639241563811</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.2940962456182089</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8238862346958866</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.9516593860719145</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9308262268959226</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8469101181431394</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9477159942589344</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8695650468218854</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8340846775021853</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.202339772168365</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.025323482472559</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8215943959195783</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.9893137919544708</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9227763288980043</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8338668047119101</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8915530202152295</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.887592944613153</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.919205546822716</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2452397261309242</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.026463046259159</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8785582997559234</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.9483060025198051</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9901821193347545</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9713609759925893</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9153483771152978</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9349963255087935</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8508329379548452</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1781730165578246</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.025023070245002</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.7816286692430178</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9391915713680663</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9531984981253998</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8875607363592933</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9468615320524222</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9590040906376753</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9075854506551088</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2230405739267121</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.046701520335986</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7605886310674164</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9618570122068488</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9873536560963003</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8722258532632339</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8944169408921103</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8475955446972203</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7947949045590905</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2120245565387072</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.007487977334234</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.7675306215281019</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.9694294636313534</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9511786371670333</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9438839822179962</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.914659710650879</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8510637343858214</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8478838063286445</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2238576126084602</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.101882357684254</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.7726112941422785</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.9486709900051568</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8924332144537653</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9231103658699802</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9594001948558035</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8855159754640411</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9234798877690519</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.2195001343371488</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9892796093890268</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8284080326252664</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.94054521635569</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9352114092945499</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9564372457261056</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8939067129403052</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8747571556619357</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8602405521573491</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.2207119863817478</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.035900926055088</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8119070004001483</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.9263017187050936</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.953902555536791</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.973034689614703</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8986531961475075</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9580752755032497</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9325626581621623</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2020706582052937</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.022242725872079</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8308229883315272</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.9567700285516018</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9410004247815971</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9614398552785977</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9393136131841532</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9682462210766145</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.942158371102209</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.179920684483667</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.049372309113345</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8225426216634348</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.906894044298317</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9939578401278892</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9820136609131305</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9150161818531052</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9204892238262258</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.893992645163155</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1980531510277649</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.085625520341123</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.7946609972275205</v>
       </c>
     </row>
   </sheetData>

--- a/testing-results.xlsx
+++ b/testing-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,10 +437,3040 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.2922044609973965</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.061947618056909</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9515704279940447</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.041353537444941</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9458352965722137</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7162768255850299</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9690958903957485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7412158134697518</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8385079770174321</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8040936644418721</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9189271231641701</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7446472832292522</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8994390820582949</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8023890687786409</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.029082628326845</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9955526738901113</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8982502030533162</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9934717390280298</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.8243731200791996</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.8650826790343646</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.7303636139251575</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7162929523750974</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8810033243486891</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.840711313119503</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.7721902101865505</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.7488472958385233</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.9852613748631223</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.007793165778388</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.8216122222741173</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.9071801918380896</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.966086058255692</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.8862474946565229</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1733751179482678</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8770580772645556</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7666184405171148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6754605319794053</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.966632098826529</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7152130200870437</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9164975263235994</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.033680072340582</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8838746445110093</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6535397597404619</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.021479347860396</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8456801924529441</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8645597943909636</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.8176067120832309</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6617954849349208</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.8804585091448627</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.7476554064985755</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.8395663893063866</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.8794822912787417</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.7752375547739891</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.8826846703813254</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.848369388019481</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8470470674888306</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.8644045264859181</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.8856292620500109</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.7728637201986001</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.6784481632916854</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.8992477229350225</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.8010241327036953</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.9433774410108134</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.8995141465456578</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8994000891599399</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2293249658377283</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9526527830380462</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8892432205929365</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9490965703713864</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9517026281116028</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9707596181423148</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8814533798325496</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9350368133769466</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9522464338473006</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.013393881275856</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8425945131931667</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9886209680334532</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8750821534703657</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.05833456685147</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.950053329937686</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8907479134740683</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9616376395409125</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.6906316950931595</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9501344815876043</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9105913069383926</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9665579244673409</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9287447877540193</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.8441977858534404</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9703528040814164</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.9454043627146107</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.056078982358409</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.033882960303978</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.7993697149906052</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.008200814759115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9925528106085242</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8009653310456027</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8844038655860686</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2794287180852728</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8729851090452243</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7685862584040151</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6427851425290914</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7415215457832132</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9672077027441515</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8136956474763024</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9701820720956918</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7949596884418751</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7133009456096444</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8349647989230085</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.923446932218673</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7069026145176993</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7130738994027176</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.8395939947729911</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8556061714097716</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.7507990753581124</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.6704158662298998</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.7564146246458607</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.733003992822729</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.7503663120899224</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.7242256244666401</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.5434286357556537</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.9077060058934264</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.7018949711948826</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.8095416250093468</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.7586304983143434</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.6655619109001235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9121914824826163</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7960451392515154</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.861248200700142</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9501184479252385</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.322191930758416</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8713550974291211</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8820115462839959</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9115184011138215</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.016190241680546</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.108943171526311</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8348505930023626</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9223100007485973</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8301573454409461</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7034548665234448</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5829576332701859</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8637395081928217</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9973003233556309</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.7900560084763549</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8844729143260471</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.857735618005002</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.018583211081928</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8973376071159151</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8911992167090015</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.9396247670964317</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.8291909572196264</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.9411884803467708</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.7426199995011117</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.9444770752617583</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.9162875326692406</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.866244332119546</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.7726130730369313</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.8738009067887911</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9755191636703724</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.888662061302655</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7098789027788142</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8394548700501927</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2220408109450345</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8301501924149584</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.805775301713372</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.703109936435008</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8653984531022145</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8541345005485576</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8074902279748701</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5293822711946286</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.7544458413573568</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.917392430663722</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8708605364306422</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.7389162225799071</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8623975281812458</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9416951476680122</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6328384923158351</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.7293310618291544</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.6562605372084716</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.7644885204406977</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.6332806594921419</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.7534114547848006</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.7017899811415063</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.8993627159008473</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.8959663001844288</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.6513467618262031</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.8189203916965565</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.5860295427258924</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.8427811149920476</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7183818763277909</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9251166960596601</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.556518579931921</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7998614461259117</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8040228545600689</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1663643154490234</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7295828599471585</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.044351127374957</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6976880742027948</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8136051122280999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8927786608881865</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7422103280051011</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9003585236842031</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9632337667851041</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.6941653913390287</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.609219783261567</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8638923747631336</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.913201450813271</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.8181666627651831</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6397780321553966</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.8792878847544057</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.7832562298040721</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.7087311068661259</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.7356953905782648</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.837071507752807</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.8467498235730249</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5875831960861869</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.8199484788203228</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.7734598572593847</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.8343625418618373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.8660290183918874</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9542851101771274</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9987636078959904</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.83952491346416</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8690174310474497</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6174077606960583</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8405030034569241</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3140789164818433</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9355256388471308</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.892227422647673</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9392646486180722</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7548682504972986</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7372959968297372</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8088802836632408</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9845420747326595</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7276243739148134</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.7806809610814045</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9539330950085363</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8580769636163791</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.9090781681779078</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.6403422551874046</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.6263157044031787</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.8761114110914465</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.7996729443858512</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.6412176973354609</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.8291115394368819</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.9952211490530437</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.9268767870087485</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.8268243598962973</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.6465626116168994</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.8982729959963979</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9771447228733793</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9520136857143133</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9142142160320832</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8349343318122148</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9953211155712529</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9044086576838769</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.080553220810482</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.035926417439202</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2429080113024292</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8643670780734922</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.038349739640841</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.023231360104287</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9657117513455675</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8809162518258091</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9712150722671641</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.973100339406739</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.9647761153916085</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9032047716611747</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8812637864925381</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8971278651561861</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9413591393909215</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.7301410422969676</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9563225263029772</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.8023761023948294</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.8596991985061702</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.7633474975464855</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.007012727531371</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.9506493045946101</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.802352707459981</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.036947038409104</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.9531057014203373</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.7380683215448968</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8977672077283247</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8761203712990626</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7952554010237249</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9079588596369996</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8428364136074862</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6558437801365755</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7302155126719212</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9284344919572478</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2867449341218586</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8766863189266678</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9133862507176287</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8006585825797542</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.9606712855546409</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9625864189699459</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8640795647124311</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.7683269098885135</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9245215275699272</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8730754263708294</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.8144424757279441</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.6004338155064891</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.9081776428141403</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.8572080962763711</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.9198988726675582</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.8361622634564203</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.8731085981912319</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.9847523151994149</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.8259966600818911</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.8939004408482129</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.039296242716337</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.9189807360273382</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.8985929166483094</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5269077842045585</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.935536662533597</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7633071540623011</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7028163900840415</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8401973869701926</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7128471446850627</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8679564178679381</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9730223665373554</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8513864925031316</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2725682938333095</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9808691731488596</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8221816713413089</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6369639129315289</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9133310523424845</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.591647634977444</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.8776261417816871</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6998709736360299</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9255391972350147</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9333662370946084</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.8244897225367716</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.8113598996484842</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.7302852016112047</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.8700524197876737</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.8692838620677574</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.892770829387295</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.5779508668639466</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.5836214502023527</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.9899806701422407</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.7989373545179478</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.8919949684242088</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.8361568602921248</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.000807445344648</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9822671022479187</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8406846396840297</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9746683886797869</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.69256637609648</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.836705715853394</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.696465376416699</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.996200443158806</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.012692891035107</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8858388675377411</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1423619730554951</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7974381141378066</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8489187727646991</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9423916765718889</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8722717768855268</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8733716906388536</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9037694971164747</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.7000381681071453</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.7636452246439499</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8629047449894749</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.7939760238873228</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.8508479174997764</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.9177158379146312</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.7577801015579949</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.8457448487287662</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.9064526946962094</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.9129129723267521</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.9159226740516906</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.7518734560537856</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.9729587605855718</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.8233933918852778</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7863580750865653</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.866622938675029</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7763971618834467</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.877592927978329</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.732682478054159</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6541043554927048</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7917642346275271</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9000603679570621</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9795161269723621</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8834942043918484</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.7203121560310548</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1178546975779842</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6972748243674289</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8524559924502633</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.72756387324419</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.7958638755698384</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8431266678561935</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.6858026973633684</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.7199431271657545</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.714946597468292</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.859979587228673</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.8966597053707052</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.7425511004421416</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.7980313371788432</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.8853226032189314</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.8016467464804236</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.8495249682333772</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.8882445082604209</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.7941165193665694</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.8228633454641775</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.8256398853183469</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7321865732527626</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.071959582191141</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9122715546031868</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.821155961425426</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8681097597818508</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.811299836767471</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9519351047717537</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9049766905899785</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9913570787647968</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.79703067972077</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9492074791041363</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8255279350035867</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2272003929963199</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.929877879428804</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5864556859521264</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.012017155088831</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8568677279968082</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8520395268767893</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.9426457040888937</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.8477909229295256</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.7689515827319163</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.8354289094299215</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.816188816626601</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9731080778834935</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.8314593316542168</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.626602142062077</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.7875168790545594</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.8079648724522895</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.8330070362561518</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.7924822592971325</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.9328178873545834</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.635578386181688</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9689275220291208</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8212202571208742</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6934111849974537</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8751404558737027</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8408231496762091</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9350082338113356</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9345541404047415</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.996978091083642</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.6964664690855449</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8660241551220013</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8576870191541782</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8715310540840189</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2950584562602725</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.020252456993272</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8634854289184147</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.6842824033781734</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.9129697140671337</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.853723511241156</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8795583947600489</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.8621608409327147</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.8401534823336458</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.8749577545802979</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.861980491963515</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.8262469588366232</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.8720371367242672</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.9263894924225542</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.9380263904131234</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.8936932975452809</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.9523731946542753</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.9219542806680597</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6925783072736093</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9752023563334463</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7501194272967926</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.841338346240069</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8103714631317372</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7392453660966063</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7809711752624307</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.075302335191046</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9731124050271045</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.7884549668447872</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.7892989302346343</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.9043803215265013</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8347666142126356</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.02935582811676</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4361299756580922</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.9197722152740739</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9168850893198905</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.8645574514571737</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.9572549971445851</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.891300877946966</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.8187325959795081</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.8510706554521861</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.9388400429829117</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.9216755613217639</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.8909523029291569</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.8127054691473947</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.6681372105057678</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.970426325251315</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.7836671854891587</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.7637769036584767</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.8318476258192737</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7840385798849485</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7936128180103488</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.687109932705567</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7935874974713137</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7764302164099288</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5988936728549566</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8075314659961823</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.873554466719444</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8499172586193485</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9644218191665961</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.106520711583645</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7690889184724028</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.9815802086836198</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.8419685140081601</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8993250510695434</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3110528700436815</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.008295722331276</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.9123510234847525</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.8663524816986194</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.6860122130096546</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.7705781818631243</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.8161600995878605</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.6183076694706304</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.7394785900191926</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.7736399284439132</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.9493049266448405</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.8681432747565342</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.6981948982743873</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.819854997490443</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.685197653593776</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.9113358301547507</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8939349676096868</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9338877408291072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8262276693054207</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7762270223505547</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9061852195109646</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8907729964693105</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8888003423554083</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9771004884912737</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9018707962252605</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.7420602374589815</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.868320118746236</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8770929770864125</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.7820780612011526</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.044003277125974</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8362225546601572</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.9714600723172927</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.277818529447587</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.9575497671978294</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.9214140632906483</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.854999453705771</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.9547585787405531</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.740242105810005</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.9065361641259</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.8846211352324143</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.8614232097389685</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.6646770579451737</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.7594653181376083</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.9450659241832738</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.9721898526513907</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.01962812000899</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.80062314904581</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7566918673620033</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8505612439027845</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8512330209318005</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9458954800395661</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.884242753811082</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7655067046045916</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7410748555257778</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9350578888176072</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8636654456349802</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.912031500405326</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9095296350993731</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7782339021004477</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8560586510657487</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8304490848190238</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.7217548417825618</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.8813510543710394</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.844793122234568</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3634665397434761</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.793616719360394</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8478756838761801</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.7545313722854277</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.8603060673078972</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.8062711123098074</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.6874338765319847</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.003911157542266</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.911765778771601</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.8682341612067475</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.9362803237022808</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.5974038368870507</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.9525753573502596</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.002784003441054</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8873491081749108</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6954765952188259</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8246720973259143</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9129881860394965</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8385486100882222</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9511351589372148</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.036667758037713</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9440819370022582</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8371977093719238</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.029066049959759</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8582347466525426</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7308821168971172</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8674306643538633</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.7836685884810275</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.050788334553159</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.008139078243526</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8772224015093498</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.9726444151729978</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.2278458482927342</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8499316980532925</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.8036625514341825</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.8974454023271355</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.7514433947640193</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.7775296574621697</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.9271534104504164</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.9147141819636463</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.018443281389414</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.7949611636260049</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.7729554681886864</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.8187470939348258</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.9740054271855895</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8851511369013741</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9388506512926567</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5592151936108245</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9520344250610471</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7071262207572309</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.690121501893505</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7347547799115053</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9329376275125564</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.7057942655820804</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9327595455112726</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.7741405582447289</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6593557588535919</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.824584189504189</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.9078451559845507</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8379675433892345</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.7034226418969691</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8639664287309811</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8633669900883857</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.8126511774981944</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2405326770735225</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.6617480450751969</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.7164965661548361</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.6854976436496591</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.7064403414301026</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.5561803247818011</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.9791867012650779</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.7369549041091651</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.7367913862861235</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.8198250034836784</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.9277309347203382</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.9135573026864736</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8032788480739361</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.794016605550267</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6269333663635106</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7729306864266718</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6942227070781984</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7018350701745042</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.751428955062345</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8340471226356763</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9179440827265387</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8392558573320622</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8860262900376066</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7651871049718552</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7428794674132254</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9294440027204269</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.6640334688119951</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.7313231931755346</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.8178124078229452</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.9183223145658455</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.8340176384582533</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.5699481381814893</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.2371578986412147</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.8456783217126097</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.6601965597660986</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.5699382392706569</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.5946833605319035</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.8031947418732888</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.7174531702676188</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.5321248847077933</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.7143791839105262</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.7635605284627262</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.9391232372352565</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9515756007125692</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9661714961542742</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7669835869593528</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.003473057254339</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6657160529717768</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8291695360420585</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8394799686589611</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9160775991733481</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8587657840850269</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8511147004588454</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.898989644014078</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7142478044487696</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8138066580892767</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.029108456817951</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.7983237207137212</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.9000834181370934</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.9163054460691171</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.9889885743019847</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.8795579805581499</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.7000108954543569</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.8488648735901334</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.2459355971951255</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.7583758333905665</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.9295520943315204</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.7609295912422402</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.9399128064760616</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.6795957821633549</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.8070348381542338</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.8655043603521539</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.9673758624657599</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.8567734492507675</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8655985238696855</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8830828795400457</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7007218564905856</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9512436086670499</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8222583386831918</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8302166226007317</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9708252643780582</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.837452701928567</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9228638314434588</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.988086656529361</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9258606270430011</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8861734812202829</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9288833160139833</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.8682042283697666</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.9386829558797533</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.7393901107781073</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.8459188331580944</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.8501252821176835</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.7490206677020319</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.7412511913733668</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.5495080244074029</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.8557054477941718</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.2607172097184063</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.740547166387146</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.6814521319764353</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.9009823032984152</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.9424324774388766</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.6792861392665057</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.7710942464506263</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.8578524684250188</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.8723973261072471</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8893780523381181</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8065279146133914</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7001290933559379</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7066220453934402</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7719549584610294</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7715121126310529</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7561138210389251</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8648683454810688</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8074674787590327</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9623446734812886</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.79509736749406</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7948813036527553</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.922865701534163</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9379891125463318</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8094663232489356</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.7793402520207756</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.819141272908563</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.7840289481301617</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.6735920344660096</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.7565097074057938</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.636673882583348</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.8326718556794657</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.8168677809274514</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.2130940403730682</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.7851556767829946</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.8551484907169233</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.7473799189142665</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.6698271383893849</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.6736669031006528</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.8345018953865551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.8814805907778372</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8475608315842872</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9287311089879052</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4672689525959928</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.903420048268135</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8697393865102077</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.7893272072403431</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8231961149915565</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8703205512425551</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.7718336842255891</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9406164460528728</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9372777680655517</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9324845338203201</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.8662297477525678</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.028224619127124</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.7788455930835625</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.698491565566925</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.8926831529746246</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.04571624563058</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.9123163865743547</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5945235341566328</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.7263220959146284</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.828416824929861</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.7949981983334368</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.8048109571493439</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.2817673023362975</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.003445241752036</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.7130380113970911</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.7694717661980137</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.8529485344600496</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.7313101251475184</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.9190805057052343</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6785228924865505</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9113239507890702</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8551114325954557</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6170429192656486</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8026890066776822</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.77768830189823</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.903727957557937</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.027341317561321</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.012393847653049</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5834884088658692</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.981607907449103</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8756642552535074</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.6288251675984335</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9141329993835664</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.684483008711496</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8823777162496631</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.6558919484140482</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.9372774075943437</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8917925245572513</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8613580209632107</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8515688243660308</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8211902123612864</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8361826366447822</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8158325102884436</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.9443261333277528</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.1767792623358805</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.673097903270133</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8673822876326273</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.9029666714018136</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8028071015886237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.9511597021158644</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7014456502036532</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9960957912631574</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5911269050803911</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9380477747404186</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8882657933522178</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6679080752399364</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.875269262518102</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9477910631670873</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8569971872222207</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.7127549312759847</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.8588726492766512</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.7489208346358605</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.7537145587773637</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.11003758876915</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.6211726974365184</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.023483716134109</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.8276806647489993</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.9538643737398234</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.8733326741219075</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.7940904000186947</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.8767902379403583</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5314118528470675</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.9120492270086918</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.8746464119581957</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.7706514006671141</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.8266031936954353</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.1983375557267605</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.7743047406131447</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.9312114455244173</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.9190601501457101</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.9387736690984114</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.910280384518539</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9842676845013101</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6709959081123691</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9531130965447271</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8483358648247659</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8109036085340211</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9645917910175036</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8030470990334464</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7989839718508971</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9496472292738887</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9873452475836075</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8192422761842069</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.973075981692028</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.042670330154412</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8726301676461212</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.8636899502813498</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.8823425116909924</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.064492964601592</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.8728052303746211</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6424968200448944</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.7244360165034316</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.8741479956076609</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6854722221706873</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.8052538167526351</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.7490281999024557</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.94037392077408</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.7498380564599477</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.2648712507584775</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1.040221368464853</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.7129021301805778</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.9633745796488041</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7332881073686854</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7210971119096251</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8474571707572222</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8984291873386691</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7818137079396754</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7999361932246651</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6921183869398302</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9334174016083683</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.069282030453752</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9328393117289195</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.8322022244121471</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7701987066983114</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.7866163269208697</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9561995711934321</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.794838942012186</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.8816566549771604</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.9096848638037424</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.6729690070539752</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.7076793843506292</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.8729880371318418</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.7107573399533956</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.8569982380747598</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.7017706701761468</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.6078390238862806</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.9002915933570266</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.8606181159443991</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.7852065459691672</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.8577087550708944</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.2005420150713165</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.9492006502106828</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.9427301319304829</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8485937784651234</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9280611365614252</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5461441023878471</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7442888397784901</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6584490277659323</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.8216349018651296</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8635843961281158</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9478791802534091</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.943380108864982</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8642533841080274</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9106842038835556</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8120864639760779</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.7470850920465593</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.02969250719607</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6744277237106853</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.6214105225731168</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.9297673973050997</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.9461245500672011</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.8851442605126315</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.7672029686098871</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.8219697241402595</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.8611952352398055</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.84164488940727</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.815808432237373</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.6391611458058534</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.7759147310382005</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.7445389037145981</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.6970901677496397</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.8269908310141374</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.1985947162104545</v>
       </c>
     </row>
   </sheetData>

--- a/testing-results.xlsx
+++ b/testing-results.xlsx
@@ -530,2947 +530,2947 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2922044609973965</v>
+        <v>0.4913697621042322</v>
       </c>
       <c r="B2" t="n">
-        <v>1.061947618056909</v>
+        <v>0.4723374248396569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9515704279940447</v>
+        <v>0.4884679277666611</v>
       </c>
       <c r="D2" t="n">
-        <v>1.041353537444941</v>
+        <v>0.5059353147351042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9458352965722137</v>
+        <v>0.3997106813092324</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7162768255850299</v>
+        <v>0.6841477810388571</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9690958903957485</v>
+        <v>0.5583362811692671</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7412158134697518</v>
+        <v>0.5861151259989652</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8385079770174321</v>
+        <v>0.5871675752835239</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8040936644418721</v>
+        <v>0.3302232520933307</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9189271231641701</v>
+        <v>0.6408048682668268</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7446472832292522</v>
+        <v>0.6791943333569936</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8994390820582949</v>
+        <v>0.5883213177116585</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8023890687786409</v>
+        <v>0.4379494496941604</v>
       </c>
       <c r="O2" t="n">
-        <v>1.029082628326845</v>
+        <v>0.6579321916227971</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9955526738901113</v>
+        <v>0.4807508988052648</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8982502030533162</v>
+        <v>0.6881692505401629</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9934717390280298</v>
+        <v>0.6144457928973962</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8243731200791996</v>
+        <v>0.6407510061729316</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8650826790343646</v>
+        <v>0.7828998240952607</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7303636139251575</v>
+        <v>0.5241523376531623</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7162929523750974</v>
+        <v>0.4307063933024768</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8810033243486891</v>
+        <v>0.6644107152536399</v>
       </c>
       <c r="X2" t="n">
-        <v>0.840711313119503</v>
+        <v>0.458163669066347</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7721902101865505</v>
+        <v>0.5696757070344716</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7488472958385233</v>
+        <v>0.4467150340535576</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9852613748631223</v>
+        <v>0.4804762436749046</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.007793165778388</v>
+        <v>0.5327387346262836</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8216122222741173</v>
+        <v>0.3967357628611435</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9071801918380896</v>
+        <v>0.5466185464540991</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.966086058255692</v>
+        <v>0.5731469018447825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8862474946565229</v>
+        <v>0.6330195550802973</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1733751179482678</v>
+        <v>0.5273159765550464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8770580772645556</v>
+        <v>0.5120895924609119</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7666184405171148</v>
+        <v>0.5176329497356539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6754605319794053</v>
+        <v>0.521047109703243</v>
       </c>
       <c r="F3" t="n">
-        <v>0.966632098826529</v>
+        <v>0.4062452875601701</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7152130200870437</v>
+        <v>0.5074516955646096</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9164975263235994</v>
+        <v>0.5015044826040465</v>
       </c>
       <c r="I3" t="n">
-        <v>1.033680072340582</v>
+        <v>0.4798579641134274</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8838746445110093</v>
+        <v>0.5021356966773032</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6535397597404619</v>
+        <v>0.6887351016929545</v>
       </c>
       <c r="L3" t="n">
-        <v>1.021479347860396</v>
+        <v>0.5426515683288212</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8456801924529441</v>
+        <v>0.5644376498361444</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8645597943909636</v>
+        <v>0.5003698299585381</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8176067120832309</v>
+        <v>0.7194866608555568</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6617954849349208</v>
+        <v>0.4916381739037194</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8804585091448627</v>
+        <v>0.572943523417342</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7476554064985755</v>
+        <v>0.5915707578484565</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8395663893063866</v>
+        <v>0.5476126515281221</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8794822912787417</v>
+        <v>0.8680953691555657</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7752375547739891</v>
+        <v>0.4693023603312082</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8826846703813254</v>
+        <v>0.5174375748473196</v>
       </c>
       <c r="W3" t="n">
-        <v>0.848369388019481</v>
+        <v>0.6373632465821716</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8470470674888306</v>
+        <v>0.4786135020837269</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8644045264859181</v>
+        <v>0.4921611415766526</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8856292620500109</v>
+        <v>0.4135370506519735</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7728637201986001</v>
+        <v>0.5738851697235534</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6784481632916854</v>
+        <v>0.5904059677511271</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8992477229350225</v>
+        <v>0.4364942138815516</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8010241327036953</v>
+        <v>0.4493976384407439</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9433774410108134</v>
+        <v>0.4599756560437607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8995141465456578</v>
+        <v>0.5285277045094314</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8994000891599399</v>
+        <v>0.3816043741634533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2293249658377283</v>
+        <v>0.3837606196696074</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9526527830380462</v>
+        <v>0.4062933460118194</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8892432205929365</v>
+        <v>0.3670447022480097</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9490965703713864</v>
+        <v>0.4125706327844859</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9517026281116028</v>
+        <v>0.3825126480833014</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9707596181423148</v>
+        <v>0.5006044426807366</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8814533798325496</v>
+        <v>0.4200819068331566</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9350368133769466</v>
+        <v>0.3133081291408099</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9522464338473006</v>
+        <v>0.6143503411104372</v>
       </c>
       <c r="L4" t="n">
-        <v>1.013393881275856</v>
+        <v>0.3757732348857703</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8425945131931667</v>
+        <v>0.5011045099899509</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9886209680334532</v>
+        <v>0.3365656329838792</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8750821534703657</v>
+        <v>0.640895842838751</v>
       </c>
       <c r="P4" t="n">
-        <v>1.05833456685147</v>
+        <v>0.3863268479804749</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.950053329937686</v>
+        <v>0.5188283360246831</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8907479134740683</v>
+        <v>0.5341478827170297</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9616376395409125</v>
+        <v>0.4705200158719338</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6906316950931595</v>
+        <v>0.7794890859130403</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9501344815876043</v>
+        <v>0.4052148884579001</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9105913069383926</v>
+        <v>0.3402762186243193</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9665579244673409</v>
+        <v>0.5923814816030397</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9287447877540193</v>
+        <v>0.276222478380178</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8441977858534404</v>
+        <v>0.4155915239309433</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9703528040814164</v>
+        <v>0.3269920030550134</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9454043627146107</v>
+        <v>0.4013406752917518</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.056078982358409</v>
+        <v>0.4839374375165637</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.033882960303978</v>
+        <v>0.318303609734945</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7993697149906052</v>
+        <v>0.4100660108092149</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.008200814759115</v>
+        <v>0.402446555050058</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9925528106085242</v>
+        <v>0.5795443716999864</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8009653310456027</v>
+        <v>0.6050922889280015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8844038655860686</v>
+        <v>0.4585572338328858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2794287180852728</v>
+        <v>0.4190571191534481</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8729851090452243</v>
+        <v>0.510860405596499</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7685862584040151</v>
+        <v>0.7772272041956779</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6427851425290914</v>
+        <v>0.5646086323906105</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7415215457832132</v>
+        <v>0.6010965093150176</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9672077027441515</v>
+        <v>0.5407622402311958</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8136956474763024</v>
+        <v>0.4238447117452638</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9701820720956918</v>
+        <v>0.6961373792655479</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7949596884418751</v>
+        <v>0.6637652463784498</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7133009456096444</v>
+        <v>0.5709710293590603</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8349647989230085</v>
+        <v>0.528386116565686</v>
       </c>
       <c r="O5" t="n">
-        <v>0.923446932218673</v>
+        <v>0.8295962122040393</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7069026145176993</v>
+        <v>0.5082113077179086</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7130738994027176</v>
+        <v>0.7296031908317672</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8395939947729911</v>
+        <v>0.662640862545774</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8556061714097716</v>
+        <v>0.5668997350244608</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7507990753581124</v>
+        <v>0.7651376665583453</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6704158662298998</v>
+        <v>0.4749817782313032</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7564146246458607</v>
+        <v>0.4767802304373189</v>
       </c>
       <c r="W5" t="n">
-        <v>0.733003992822729</v>
+        <v>0.7052509788934329</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7503663120899224</v>
+        <v>0.4749228955110989</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7242256244666401</v>
+        <v>0.5411070751126409</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5434286357556537</v>
+        <v>0.4981999661210886</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9077060058934264</v>
+        <v>0.4268270394059482</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7018949711948826</v>
+        <v>0.5861017941495914</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.8095416250093468</v>
+        <v>0.4162340653675002</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.7586304983143434</v>
+        <v>0.4926237953225507</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6655619109001235</v>
+        <v>0.5612945089522338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9121914824826163</v>
+        <v>0.5006119813914552</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7960451392515154</v>
+        <v>0.481652453469179</v>
       </c>
       <c r="C6" t="n">
-        <v>0.861248200700142</v>
+        <v>0.4300305412381922</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9501184479252385</v>
+        <v>0.3822368078117009</v>
       </c>
       <c r="E6" t="n">
-        <v>0.322191930758416</v>
+        <v>0.4304622881741914</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8713550974291211</v>
+        <v>0.541940182048126</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8820115462839959</v>
+        <v>0.4397275020962742</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9115184011138215</v>
+        <v>0.3615752367266966</v>
       </c>
       <c r="I6" t="n">
-        <v>1.016190241680546</v>
+        <v>0.4879435431380379</v>
       </c>
       <c r="J6" t="n">
-        <v>1.108943171526311</v>
+        <v>0.3866379904103097</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8348505930023626</v>
+        <v>0.661970346674848</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9223100007485973</v>
+        <v>0.4329105395927688</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8301573454409461</v>
+        <v>0.537880772313418</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7034548665234448</v>
+        <v>0.3906056929889521</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5829576332701859</v>
+        <v>0.6086673927354305</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8637395081928217</v>
+        <v>0.3750323981510356</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9973003233556309</v>
+        <v>0.5770591427397579</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7900560084763549</v>
+        <v>0.6184755636088859</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8844729143260471</v>
+        <v>0.3651399919134406</v>
       </c>
       <c r="T6" t="n">
-        <v>0.857735618005002</v>
+        <v>0.6452587780859945</v>
       </c>
       <c r="U6" t="n">
-        <v>1.018583211081928</v>
+        <v>0.4645892142124102</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8973376071159151</v>
+        <v>0.4072629610887256</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8911992167090015</v>
+        <v>0.6169480844421591</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9396247670964317</v>
+        <v>0.4189231949295636</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8291909572196264</v>
+        <v>0.3831469404466216</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.9411884803467708</v>
+        <v>0.3223364562677433</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7426199995011117</v>
+        <v>0.4060860253652717</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9444770752617583</v>
+        <v>0.4357772436490533</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9162875326692406</v>
+        <v>0.4728282743462136</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.866244332119546</v>
+        <v>0.3946792326326277</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7726130730369313</v>
+        <v>0.3983381384544297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8738009067887911</v>
+        <v>0.6243605368254375</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9755191636703724</v>
+        <v>0.3664379280978078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.888662061302655</v>
+        <v>0.3128049161577118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7098789027788142</v>
+        <v>0.4121723879092287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8394548700501927</v>
+        <v>0.3937918817013721</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2220408109450345</v>
+        <v>0.5241654063323797</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8301501924149584</v>
+        <v>0.3907316755838757</v>
       </c>
       <c r="H7" t="n">
-        <v>0.805775301713372</v>
+        <v>0.5191106558438396</v>
       </c>
       <c r="I7" t="n">
-        <v>0.703109936435008</v>
+        <v>0.4505392453476659</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8653984531022145</v>
+        <v>0.3617738001416033</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8541345005485576</v>
+        <v>0.6771612469607955</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8074902279748701</v>
+        <v>0.3724525656812543</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5293822711946286</v>
+        <v>0.4153692298386265</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7544458413573568</v>
+        <v>0.3906845550150634</v>
       </c>
       <c r="O7" t="n">
-        <v>0.917392430663722</v>
+        <v>0.6716910638441177</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8708605364306422</v>
+        <v>0.3708160960214268</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7389162225799071</v>
+        <v>0.5528586858829792</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8623975281812458</v>
+        <v>0.4993806417894455</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9416951476680122</v>
+        <v>0.4481020367155802</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6328384923158351</v>
+        <v>0.6935446676531416</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7293310618291544</v>
+        <v>0.392274684636142</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6562605372084716</v>
+        <v>0.3929616291879587</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7644885204406977</v>
+        <v>0.6284756712690371</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6332806594921419</v>
+        <v>0.2928655280597593</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7534114547848006</v>
+        <v>0.3854940524702583</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7017899811415063</v>
+        <v>0.3779740485725293</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8993627159008473</v>
+        <v>0.4002099781369594</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8959663001844288</v>
+        <v>0.5311589837144769</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6513467618262031</v>
+        <v>0.3373293247319961</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.8189203916965565</v>
+        <v>0.3214992843401526</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.5860295427258924</v>
+        <v>0.4250879111886715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8427811149920476</v>
+        <v>0.6241126542580284</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7183818763277909</v>
+        <v>0.563427126268806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9251166960596601</v>
+        <v>0.5369824211558041</v>
       </c>
       <c r="D8" t="n">
-        <v>0.556518579931921</v>
+        <v>0.4714206547013192</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7998614461259117</v>
+        <v>0.6052344820712861</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8040228545600689</v>
+        <v>0.6614802901728456</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1663643154490234</v>
+        <v>0.6486666631373958</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7295828599471585</v>
+        <v>0.6745731040408618</v>
       </c>
       <c r="I8" t="n">
-        <v>1.044351127374957</v>
+        <v>0.5421910110828043</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6976880742027948</v>
+        <v>0.4495223229489046</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8136051122280999</v>
+        <v>0.8502165313996356</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8927786608881865</v>
+        <v>0.6287454652606803</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7422103280051011</v>
+        <v>0.5787243798700048</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9003585236842031</v>
+        <v>0.6435140126862444</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9632337667851041</v>
+        <v>0.7618441344496414</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6941653913390287</v>
+        <v>0.4796340709507605</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.609219783261567</v>
+        <v>0.7538895052902495</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8638923747631336</v>
+        <v>0.7037870609021901</v>
       </c>
       <c r="S8" t="n">
-        <v>0.913201450813271</v>
+        <v>0.626192293648876</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8181666627651831</v>
+        <v>0.8547469337912916</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6397780321553966</v>
+        <v>0.4711026499459875</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8792878847544057</v>
+        <v>0.5250784045589378</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7832562298040721</v>
+        <v>0.6515827973800834</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7087311068661259</v>
+        <v>0.521890576199658</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7356953905782648</v>
+        <v>0.5675930154002125</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.837071507752807</v>
+        <v>0.4861127637232986</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8467498235730249</v>
+        <v>0.5684933733676034</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5875831960861869</v>
+        <v>0.6197667402787732</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.8199484788203228</v>
+        <v>0.4527145911707918</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.7734598572593847</v>
+        <v>0.4932391321748862</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.8343625418618373</v>
+        <v>0.5838466365879802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8660290183918874</v>
+        <v>0.8103303288453477</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9542851101771274</v>
+        <v>0.6613447151519469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9987636078959904</v>
+        <v>0.5957531303445283</v>
       </c>
       <c r="D9" t="n">
-        <v>0.83952491346416</v>
+        <v>0.5865402122155288</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8690174310474497</v>
+        <v>0.6151244102407587</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6174077606960583</v>
+        <v>0.7440061706653307</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8405030034569241</v>
+        <v>0.7778686062333183</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3140789164818433</v>
+        <v>0.7554262921999644</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9355256388471308</v>
+        <v>0.6639192894077229</v>
       </c>
       <c r="J9" t="n">
-        <v>0.892227422647673</v>
+        <v>0.5777910762408139</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9392646486180722</v>
+        <v>0.8144938718486752</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7548682504972986</v>
+        <v>0.5609280480504515</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7372959968297372</v>
+        <v>0.6331793459339992</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8088802836632408</v>
+        <v>0.6623779934633681</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9845420747326595</v>
+        <v>0.8628590628490269</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7276243739148134</v>
+        <v>0.6329305403441945</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7806809610814045</v>
+        <v>0.7577894621223815</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9539330950085363</v>
+        <v>0.619652373875592</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8580769636163791</v>
+        <v>0.8102430360376015</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9090781681779078</v>
+        <v>0.9645052785727369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6403422551874046</v>
+        <v>0.6229911287448917</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6263157044031787</v>
+        <v>0.6741030421775215</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8761114110914465</v>
+        <v>0.8260895878318867</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7996729443858512</v>
+        <v>0.5457824711080659</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6412176973354609</v>
+        <v>0.6942699590201974</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.8291115394368819</v>
+        <v>0.6180396790658809</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.9952211490530437</v>
+        <v>0.6704400342494685</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.9268767870087485</v>
+        <v>0.79855879063948</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.8268243598962973</v>
+        <v>0.5644077088435795</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6465626116168994</v>
+        <v>0.6063958269272203</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.8982729959963979</v>
+        <v>0.6671471527394831</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9771447228733793</v>
+        <v>0.4990196233268802</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9520136857143133</v>
+        <v>0.6022921208460299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9142142160320832</v>
+        <v>0.5233501437992321</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8349343318122148</v>
+        <v>0.402940961811518</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9953211155712529</v>
+        <v>0.5890136584897349</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9044086576838769</v>
+        <v>0.625433606291707</v>
       </c>
       <c r="G10" t="n">
-        <v>1.080553220810482</v>
+        <v>0.5358307096907051</v>
       </c>
       <c r="H10" t="n">
-        <v>1.035926417439202</v>
+        <v>0.6445350304999828</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2429080113024292</v>
+        <v>0.4412703292581959</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8643670780734922</v>
+        <v>0.4796250696172105</v>
       </c>
       <c r="K10" t="n">
-        <v>1.038349739640841</v>
+        <v>0.7010922166334643</v>
       </c>
       <c r="L10" t="n">
-        <v>1.023231360104287</v>
+        <v>0.5413364912935742</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9657117513455675</v>
+        <v>0.496398270259355</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8809162518258091</v>
+        <v>0.519340745902097</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9712150722671641</v>
+        <v>0.7494073693056058</v>
       </c>
       <c r="P10" t="n">
-        <v>0.973100339406739</v>
+        <v>0.576239858339668</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9647761153916085</v>
+        <v>0.6351529836079584</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9032047716611747</v>
+        <v>0.6792193537716136</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8812637864925381</v>
+        <v>0.6982572601106591</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8971278651561861</v>
+        <v>0.7526923929814069</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9413591393909215</v>
+        <v>0.5066078547900261</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7301410422969676</v>
+        <v>0.5194969006731642</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9563225263029772</v>
+        <v>0.645675900126321</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8023761023948294</v>
+        <v>0.5667328862578767</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8596991985061702</v>
+        <v>0.4942852126899078</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7633474975464855</v>
+        <v>0.4918906428703955</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.007012727531371</v>
+        <v>0.5843304198512973</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.9506493045946101</v>
+        <v>0.5747503678635525</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.802352707459981</v>
+        <v>0.4992974320962035</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.036947038409104</v>
+        <v>0.5948943751619407</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.9531057014203373</v>
+        <v>0.5043797511966475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7380683215448968</v>
+        <v>0.5105932607474337</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8977672077283247</v>
+        <v>0.4360591426863643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8761203712990626</v>
+        <v>0.3747660904396738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7952554010237249</v>
+        <v>0.42050136858514</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9079588596369996</v>
+        <v>0.4213611653745061</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8428364136074862</v>
+        <v>0.5175148356038691</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6558437801365755</v>
+        <v>0.4653181908340276</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7302155126719212</v>
+        <v>0.4940581503132878</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9284344919572478</v>
+        <v>0.3967533781129019</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2867449341218586</v>
+        <v>0.3011205000173904</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8766863189266678</v>
+        <v>0.5872231820484655</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9133862507176287</v>
+        <v>0.4345844243566628</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8006585825797542</v>
+        <v>0.4554830906078661</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9606712855546409</v>
+        <v>0.4036678852683467</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9625864189699459</v>
+        <v>0.6610281242201057</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8640795647124311</v>
+        <v>0.428431058234498</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7683269098885135</v>
+        <v>0.6149350345351554</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9245215275699272</v>
+        <v>0.5384729253626335</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8730754263708294</v>
+        <v>0.5545843054765811</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8144424757279441</v>
+        <v>0.7489866108209104</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6004338155064891</v>
+        <v>0.4513512607408157</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9081776428141403</v>
+        <v>0.4049172330387275</v>
       </c>
       <c r="W11" t="n">
-        <v>0.8572080962763711</v>
+        <v>0.6552101539281188</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9198988726675582</v>
+        <v>0.2945367623271116</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8361622634564203</v>
+        <v>0.4380099169302597</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.8731085981912319</v>
+        <v>0.3945562414151342</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9847523151994149</v>
+        <v>0.4073414212193261</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8259966600818911</v>
+        <v>0.6024682876878078</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8939004408482129</v>
+        <v>0.3324788802590869</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.039296242716337</v>
+        <v>0.4121121068923708</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9189807360273382</v>
+        <v>0.4583087372648512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8985929166483094</v>
+        <v>0.5834676337261747</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5269077842045585</v>
+        <v>0.4968554427875395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.935536662533597</v>
+        <v>0.3863032697374035</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7633071540623011</v>
+        <v>0.4337703565115807</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7028163900840415</v>
+        <v>0.46997076567973</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8401973869701926</v>
+        <v>0.5066938772355559</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7128471446850627</v>
+        <v>0.4534800823258925</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8679564178679381</v>
+        <v>0.507107097500284</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9730223665373554</v>
+        <v>0.4658405030410856</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8513864925031316</v>
+        <v>0.4452172607737744</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2725682938333095</v>
+        <v>0.6559801151829415</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9808691731488596</v>
+        <v>0.4022681472338999</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8221816713413089</v>
+        <v>0.5027361070929295</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6369639129315289</v>
+        <v>0.401240473331591</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9133310523424845</v>
+        <v>0.6703043905905812</v>
       </c>
       <c r="P12" t="n">
-        <v>0.591647634977444</v>
+        <v>0.4382542055144789</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8776261417816871</v>
+        <v>0.4698082088398908</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6998709736360299</v>
+        <v>0.5825374671173651</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9255391972350147</v>
+        <v>0.5514549687271677</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9333662370946084</v>
+        <v>0.7724210804624247</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8244897225367716</v>
+        <v>0.5300432495720859</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8113598996484842</v>
+        <v>0.5205308778187867</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7302852016112047</v>
+        <v>0.5889503844242059</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8700524197876737</v>
+        <v>0.4464766879944965</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.8692838620677574</v>
+        <v>0.4620330222093948</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.892770829387295</v>
+        <v>0.3693888078629918</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.5779508668639466</v>
+        <v>0.5633978432326807</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.5836214502023527</v>
+        <v>0.5160301261132314</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9899806701422407</v>
+        <v>0.4403977613258437</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.7989373545179478</v>
+        <v>0.4513004216335005</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.8919949684242088</v>
+        <v>0.3745334690659742</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8361568602921248</v>
+        <v>0.5592141482683686</v>
       </c>
       <c r="B13" t="n">
-        <v>1.000807445344648</v>
+        <v>0.5004610017341888</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9822671022479187</v>
+        <v>0.3973025083968276</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8406846396840297</v>
+        <v>0.3822610416110874</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9746683886797869</v>
+        <v>0.4618122516579546</v>
       </c>
       <c r="F13" t="n">
-        <v>0.69256637609648</v>
+        <v>0.6559918243127101</v>
       </c>
       <c r="G13" t="n">
-        <v>0.836705715853394</v>
+        <v>0.5312673663673622</v>
       </c>
       <c r="H13" t="n">
-        <v>0.696465376416699</v>
+        <v>0.6102431289838586</v>
       </c>
       <c r="I13" t="n">
-        <v>0.996200443158806</v>
+        <v>0.473059500154452</v>
       </c>
       <c r="J13" t="n">
-        <v>1.012692891035107</v>
+        <v>0.433408807375675</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8858388675377411</v>
+        <v>0.6402932175014334</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1423619730554951</v>
+        <v>0.4055375565372884</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7974381141378066</v>
+        <v>0.3697701880405024</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8489187727646991</v>
+        <v>0.4584735511916738</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9423916765718889</v>
+        <v>0.7278880810052316</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8722717768855268</v>
+        <v>0.4089677231620014</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8733716906388536</v>
+        <v>0.5772370442085004</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9037694971164747</v>
+        <v>0.5793367586390502</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7000381681071453</v>
+        <v>0.5636094881645725</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7636452246439499</v>
+        <v>0.6639276258011729</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8629047449894749</v>
+        <v>0.5234686276567082</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7939760238873228</v>
+        <v>0.5201899582705405</v>
       </c>
       <c r="W13" t="n">
-        <v>0.8508479174997764</v>
+        <v>0.7645720456320647</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9177158379146312</v>
+        <v>0.425732280798097</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7577801015579949</v>
+        <v>0.5534461117059222</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.8457448487287662</v>
+        <v>0.4655467013082832</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.9064526946962094</v>
+        <v>0.4969411345479333</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.9129129723267521</v>
+        <v>0.5626690063210196</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.9159226740516906</v>
+        <v>0.4404851055585047</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.7518734560537856</v>
+        <v>0.4130289993025096</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.9729587605855718</v>
+        <v>0.449265378522435</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8233933918852778</v>
+        <v>0.498227938280408</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7863580750865653</v>
+        <v>0.4885800033984775</v>
       </c>
       <c r="C14" t="n">
-        <v>0.866622938675029</v>
+        <v>0.5266636899327155</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7763971618834467</v>
+        <v>0.4031435680795382</v>
       </c>
       <c r="E14" t="n">
-        <v>0.877592927978329</v>
+        <v>0.5154322355381875</v>
       </c>
       <c r="F14" t="n">
-        <v>0.732682478054159</v>
+        <v>0.5478235906889616</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6541043554927048</v>
+        <v>0.4869034349955843</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7917642346275271</v>
+        <v>0.5881686992702031</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9000603679570621</v>
+        <v>0.5050355649700529</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9795161269723621</v>
+        <v>0.4565188668375363</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8834942043918484</v>
+        <v>0.6764124796196709</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7203121560310548</v>
+        <v>0.4961368553149056</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1178546975779842</v>
+        <v>0.5335595770480246</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6972748243674289</v>
+        <v>0.4602033135370579</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8524559924502633</v>
+        <v>0.6558546183457452</v>
       </c>
       <c r="P14" t="n">
-        <v>0.72756387324419</v>
+        <v>0.450276270263777</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7958638755698384</v>
+        <v>0.6671766569947437</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8431266678561935</v>
+        <v>0.6672064285866199</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6858026973633684</v>
+        <v>0.5921134849475267</v>
       </c>
       <c r="T14" t="n">
-        <v>0.7199431271657545</v>
+        <v>0.8254186003806774</v>
       </c>
       <c r="U14" t="n">
-        <v>0.714946597468292</v>
+        <v>0.523729179084174</v>
       </c>
       <c r="V14" t="n">
-        <v>0.859979587228673</v>
+        <v>0.4792853349837043</v>
       </c>
       <c r="W14" t="n">
-        <v>0.8966597053707052</v>
+        <v>0.6935611510344553</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7425511004421416</v>
+        <v>0.4586766955980017</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7980313371788432</v>
+        <v>0.5678802056788942</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.8853226032189314</v>
+        <v>0.4467010287243299</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.8016467464804236</v>
+        <v>0.5146704049853771</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.8495249682333772</v>
+        <v>0.573307717599007</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.8882445082604209</v>
+        <v>0.4809141316485864</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.7941165193665694</v>
+        <v>0.5039336160008345</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.8228633454641775</v>
+        <v>0.5266037544483883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8256398853183469</v>
+        <v>0.5494734098980804</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7321865732527626</v>
+        <v>0.4632289864940817</v>
       </c>
       <c r="C15" t="n">
-        <v>1.071959582191141</v>
+        <v>0.3969535006140479</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9122715546031868</v>
+        <v>0.3011031254176088</v>
       </c>
       <c r="E15" t="n">
-        <v>0.821155961425426</v>
+        <v>0.4975761610600958</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8681097597818508</v>
+        <v>0.4723993413729777</v>
       </c>
       <c r="G15" t="n">
-        <v>0.811299836767471</v>
+        <v>0.4222895948025278</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9519351047717537</v>
+        <v>0.3237499353168473</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9049766905899785</v>
+        <v>0.4472408262926146</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9913570787647968</v>
+        <v>0.3715203956407745</v>
       </c>
       <c r="K15" t="n">
-        <v>0.79703067972077</v>
+        <v>0.6806275221942164</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9492074791041363</v>
+        <v>0.3961339897669987</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8255279350035867</v>
+        <v>0.522962401538128</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2272003929963199</v>
+        <v>0.3920999288898004</v>
       </c>
       <c r="O15" t="n">
-        <v>0.929877879428804</v>
+        <v>0.5826291974565463</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5864556859521264</v>
+        <v>0.3451314889097126</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.012017155088831</v>
+        <v>0.6653249010746257</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8568677279968082</v>
+        <v>0.5688178664611621</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8520395268767893</v>
+        <v>0.3530690228497059</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9426457040888937</v>
+        <v>0.7226544444102945</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8477909229295256</v>
+        <v>0.3800791808210445</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7689515827319163</v>
+        <v>0.3349653980870008</v>
       </c>
       <c r="W15" t="n">
-        <v>0.8354289094299215</v>
+        <v>0.5908345227255096</v>
       </c>
       <c r="X15" t="n">
-        <v>0.816188816626601</v>
+        <v>0.3426565558158545</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9731080778834935</v>
+        <v>0.3462595627757048</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.8314593316542168</v>
+        <v>0.401019802660077</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.626602142062077</v>
+        <v>0.3970911528934397</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.7875168790545594</v>
+        <v>0.5081552384027517</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.8079648724522895</v>
+        <v>0.3912483914433624</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.8330070362561518</v>
+        <v>0.3486615057415791</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.7924822592971325</v>
+        <v>0.4685770167018982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9328178873545834</v>
+        <v>0.5266141519443299</v>
       </c>
       <c r="B16" t="n">
-        <v>0.635578386181688</v>
+        <v>0.4335501143645336</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9689275220291208</v>
+        <v>0.4551312924981351</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8212202571208742</v>
+        <v>0.3605650715465855</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6934111849974537</v>
+        <v>0.4945270169246027</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8751404558737027</v>
+        <v>0.5311313004941419</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8408231496762091</v>
+        <v>0.4054627954915785</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9350082338113356</v>
+        <v>0.4222629107904491</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9345541404047415</v>
+        <v>0.4898132837111159</v>
       </c>
       <c r="J16" t="n">
-        <v>0.996978091083642</v>
+        <v>0.3701314753477675</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6964664690855449</v>
+        <v>0.6429053070391161</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8660241551220013</v>
+        <v>0.4247457041566471</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8576870191541782</v>
+        <v>0.5382656612266791</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8715310540840189</v>
+        <v>0.3729079407853002</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2950584562602725</v>
+        <v>0.5683033655124894</v>
       </c>
       <c r="P16" t="n">
-        <v>1.020252456993272</v>
+        <v>0.3664003822766174</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8634854289184147</v>
+        <v>0.5673057222367938</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6842824033781734</v>
+        <v>0.6583297884548314</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9129697140671337</v>
+        <v>0.3819972373802317</v>
       </c>
       <c r="T16" t="n">
-        <v>0.853723511241156</v>
+        <v>0.7768363038391377</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8795583947600489</v>
+        <v>0.4427348192442694</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8621608409327147</v>
+        <v>0.3987006353266611</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8401534823336458</v>
+        <v>0.6082211093857874</v>
       </c>
       <c r="X16" t="n">
-        <v>0.8749577545802979</v>
+        <v>0.3418640796744677</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.861980491963515</v>
+        <v>0.3689552564396257</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.8262469588366232</v>
+        <v>0.3993975129239107</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.8720371367242672</v>
+        <v>0.4179250836012429</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.9263894924225542</v>
+        <v>0.5433472932545577</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.9380263904131234</v>
+        <v>0.3986679206136338</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.8936932975452809</v>
+        <v>0.4374404530232077</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.9523731946542753</v>
+        <v>0.4849890761547094</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9219542806680597</v>
+        <v>0.5910445023323742</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6925783072736093</v>
+        <v>0.534738677718319</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9752023563334463</v>
+        <v>0.5250300014471827</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7501194272967926</v>
+        <v>0.3706145639945291</v>
       </c>
       <c r="E17" t="n">
-        <v>0.841338346240069</v>
+        <v>0.447824612671304</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8103714631317372</v>
+        <v>0.6187773234420404</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7392453660966063</v>
+        <v>0.5470975680495384</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7809711752624307</v>
+        <v>0.5817097447382193</v>
       </c>
       <c r="I17" t="n">
-        <v>1.075302335191046</v>
+        <v>0.5316431369889687</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9731124050271045</v>
+        <v>0.369391551678934</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7884549668447872</v>
+        <v>0.8139246195229715</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7892989302346343</v>
+        <v>0.5470210794321394</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9043803215265013</v>
+        <v>0.5216170544854137</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8347666142126356</v>
+        <v>0.400526989795675</v>
       </c>
       <c r="O17" t="n">
-        <v>1.02935582811676</v>
+        <v>0.6789151025782273</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4361299756580922</v>
+        <v>0.4531653599066188</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9197722152740739</v>
+        <v>0.701322916136718</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9168850893198905</v>
+        <v>0.6551494655218818</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8645574514571737</v>
+        <v>0.545415331520205</v>
       </c>
       <c r="T17" t="n">
-        <v>0.9572549971445851</v>
+        <v>0.8109058378471384</v>
       </c>
       <c r="U17" t="n">
-        <v>0.891300877946966</v>
+        <v>0.4451329316727871</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8187325959795081</v>
+        <v>0.4001295739561489</v>
       </c>
       <c r="W17" t="n">
-        <v>0.8510706554521861</v>
+        <v>0.6469947845257134</v>
       </c>
       <c r="X17" t="n">
-        <v>0.9388400429829117</v>
+        <v>0.4028363885418711</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9216755613217639</v>
+        <v>0.5076708011600757</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.8909523029291569</v>
+        <v>0.37230701050139</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.8127054691473947</v>
+        <v>0.446037465324441</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.6681372105057678</v>
+        <v>0.6045959294871437</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.970426325251315</v>
+        <v>0.3918213247599241</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.7836671854891587</v>
+        <v>0.4153484846805093</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.7637769036584767</v>
+        <v>0.5194878563031113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8318476258192737</v>
+        <v>0.7127831188527407</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7840385798849485</v>
+        <v>0.6906663477654418</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7936128180103488</v>
+        <v>0.674940461988016</v>
       </c>
       <c r="D18" t="n">
-        <v>0.687109932705567</v>
+        <v>0.6727557752564793</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7935874974713137</v>
+        <v>0.7171910234230506</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7764302164099288</v>
+        <v>0.6766220836304975</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5988936728549566</v>
+        <v>0.7765783384275566</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8075314659961823</v>
+        <v>0.7457623375834737</v>
       </c>
       <c r="I18" t="n">
-        <v>0.873554466719444</v>
+        <v>0.7321842409435153</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8499172586193485</v>
+        <v>0.6943432299837295</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9644218191665961</v>
+        <v>0.8464194218019493</v>
       </c>
       <c r="L18" t="n">
-        <v>1.106520711583645</v>
+        <v>0.6741313794357431</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7690889184724028</v>
+        <v>0.7105743919084206</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9815802086836198</v>
+        <v>0.7379361587745523</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8419685140081601</v>
+        <v>0.7772904758183039</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8993250510695434</v>
+        <v>0.714768034028656</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3110528700436815</v>
+        <v>0.7245007337698516</v>
       </c>
       <c r="R18" t="n">
-        <v>1.008295722331276</v>
+        <v>0.7795555228045332</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9123510234847525</v>
+        <v>0.7435517862969827</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8663524816986194</v>
+        <v>0.9516369286941757</v>
       </c>
       <c r="U18" t="n">
-        <v>0.6860122130096546</v>
+        <v>0.7227154920542879</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7705781818631243</v>
+        <v>0.7466637794337965</v>
       </c>
       <c r="W18" t="n">
-        <v>0.8161600995878605</v>
+        <v>0.8209327511212251</v>
       </c>
       <c r="X18" t="n">
-        <v>0.6183076694706304</v>
+        <v>0.6744328699428673</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.7394785900191926</v>
+        <v>0.7638027100515361</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.7736399284439132</v>
+        <v>0.6370220786943501</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.9493049266448405</v>
+        <v>0.7743379957444882</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.8681432747565342</v>
+        <v>0.7745835815879982</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.6981948982743873</v>
+        <v>0.6904208520402375</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.819854997490443</v>
+        <v>0.6988589941798953</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.685197653593776</v>
+        <v>0.6880276577684032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9113358301547507</v>
+        <v>0.5701311428530302</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8939349676096868</v>
+        <v>0.5031448202805129</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9338877408291072</v>
+        <v>0.5052001232266587</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8262276693054207</v>
+        <v>0.5713884896620944</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7762270223505547</v>
+        <v>0.5622077887617301</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9061852195109646</v>
+        <v>0.5015145414407549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8907729964693105</v>
+        <v>0.51681184761121</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8888003423554083</v>
+        <v>0.4825559812224148</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9771004884912737</v>
+        <v>0.5375728486550866</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9018707962252605</v>
+        <v>0.5211507161924104</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7420602374589815</v>
+        <v>0.7124538076547772</v>
       </c>
       <c r="L19" t="n">
-        <v>0.868320118746236</v>
+        <v>0.466045867021634</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8770929770864125</v>
+        <v>0.5152537930936564</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7820780612011526</v>
+        <v>0.468980033898548</v>
       </c>
       <c r="O19" t="n">
-        <v>1.044003277125974</v>
+        <v>0.7335700867385105</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8362225546601572</v>
+        <v>0.4207266285677336</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9714600723172927</v>
+        <v>0.5556237572213615</v>
       </c>
       <c r="R19" t="n">
-        <v>0.277818529447587</v>
+        <v>0.7030782917658954</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9575497671978294</v>
+        <v>0.606955740230918</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9214140632906483</v>
+        <v>0.7449901860865067</v>
       </c>
       <c r="U19" t="n">
-        <v>0.854999453705771</v>
+        <v>0.5301518445661646</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9547585787405531</v>
+        <v>0.5063444199308618</v>
       </c>
       <c r="W19" t="n">
-        <v>0.740242105810005</v>
+        <v>0.6555634062518376</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9065361641259</v>
+        <v>0.4308884873514885</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.8846211352324143</v>
+        <v>0.5288775071960136</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.8614232097389685</v>
+        <v>0.3810836068446986</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.6646770579451737</v>
+        <v>0.5557487091361026</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.7594653181376083</v>
+        <v>0.5205048000818165</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.9450659241832738</v>
+        <v>0.5326095404879798</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.9721898526513907</v>
+        <v>0.4852456256164701</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.01962812000899</v>
+        <v>0.4007615157733971</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.80062314904581</v>
+        <v>0.5804233684585343</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7566918673620033</v>
+        <v>0.6886158130725901</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8505612439027845</v>
+        <v>0.5251590184348446</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8512330209318005</v>
+        <v>0.5994356364550382</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9458954800395661</v>
+        <v>0.6214652831740158</v>
       </c>
       <c r="F20" t="n">
-        <v>0.884242753811082</v>
+        <v>0.607517474474438</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7655067046045916</v>
+        <v>0.5893671855963386</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7410748555257778</v>
+        <v>0.5740430303228192</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9350578888176072</v>
+        <v>0.6658849816183061</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8636654456349802</v>
+        <v>0.6080138322641859</v>
       </c>
       <c r="K20" t="n">
-        <v>0.912031500405326</v>
+        <v>0.547702522542225</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9095296350993731</v>
+        <v>0.5636204742936326</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7782339021004477</v>
+        <v>0.6703539554508235</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8560586510657487</v>
+        <v>0.6137590203141386</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8304490848190238</v>
+        <v>0.6992042862673304</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7217548417825618</v>
+        <v>0.6308765836374953</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8813510543710394</v>
+        <v>0.6539872234750526</v>
       </c>
       <c r="R20" t="n">
-        <v>0.844793122234568</v>
+        <v>0.742629782234111</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3634665397434761</v>
+        <v>0.5532795761723137</v>
       </c>
       <c r="T20" t="n">
-        <v>0.793616719360394</v>
+        <v>0.7543906205964159</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8478756838761801</v>
+        <v>0.7258053021566573</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7545313722854277</v>
+        <v>0.6129307448419055</v>
       </c>
       <c r="W20" t="n">
-        <v>0.8603060673078972</v>
+        <v>0.6816996649743745</v>
       </c>
       <c r="X20" t="n">
-        <v>0.8062711123098074</v>
+        <v>0.5417768137904088</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.6874338765319847</v>
+        <v>0.5372566393899848</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.003911157542266</v>
+        <v>0.5738617633127054</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.911765778771601</v>
+        <v>0.6814334221106069</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.8682341612067475</v>
+        <v>0.6693309487238619</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.9362803237022808</v>
+        <v>0.653759443403257</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.5974038368870507</v>
+        <v>0.6255978241583442</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.9525753573502596</v>
+        <v>0.6409393408007302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.002784003441054</v>
+        <v>0.7191095954547766</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8873491081749108</v>
+        <v>0.7015243483529536</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6954765952188259</v>
+        <v>0.6291278089666329</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8246720973259143</v>
+        <v>0.7384401834263306</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9129881860394965</v>
+        <v>0.6566721221158766</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8385486100882222</v>
+        <v>0.7634615055208508</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9511351589372148</v>
+        <v>0.5883045649052137</v>
       </c>
       <c r="H21" t="n">
-        <v>1.036667758037713</v>
+        <v>0.709863742970881</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9440819370022582</v>
+        <v>0.6879192224227424</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8371977093719238</v>
+        <v>0.7066883574180459</v>
       </c>
       <c r="K21" t="n">
-        <v>1.029066049959759</v>
+        <v>0.6939922053592318</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8582347466525426</v>
+        <v>0.6466217464289403</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7308821168971172</v>
+        <v>0.5674381998929179</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8674306643538633</v>
+        <v>0.6513655550331103</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7836685884810275</v>
+        <v>0.689133644855461</v>
       </c>
       <c r="P21" t="n">
-        <v>1.050788334553159</v>
+        <v>0.6556160144523062</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.008139078243526</v>
+        <v>0.6855702814717224</v>
       </c>
       <c r="R21" t="n">
-        <v>0.8772224015093498</v>
+        <v>0.6797615815512066</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9726444151729978</v>
+        <v>0.6596553912250454</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2278458482927342</v>
+        <v>0.8962756216882403</v>
       </c>
       <c r="U21" t="n">
-        <v>0.8499316980532925</v>
+        <v>0.7148577089444851</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8036625514341825</v>
+        <v>0.721354197400481</v>
       </c>
       <c r="W21" t="n">
-        <v>0.8974454023271355</v>
+        <v>0.8686519381936595</v>
       </c>
       <c r="X21" t="n">
-        <v>0.7514433947640193</v>
+        <v>0.5595938824624375</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7775296574621697</v>
+        <v>0.6938316851220936</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.9271534104504164</v>
+        <v>0.673578308771521</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.9147141819636463</v>
+        <v>0.6987822360315257</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.018443281389414</v>
+        <v>0.7332572656559051</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.7949611636260049</v>
+        <v>0.7122953970961687</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.7729554681886864</v>
+        <v>0.6701797171979598</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.8187470939348258</v>
+        <v>0.6591265796806127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9740054271855895</v>
+        <v>0.5722406255741739</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8851511369013741</v>
+        <v>0.5542064047368891</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9388506512926567</v>
+        <v>0.4923361886888185</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5592151936108245</v>
+        <v>0.3508298097874325</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9520344250610471</v>
+        <v>0.5260870925639034</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7071262207572309</v>
+        <v>0.6562349864081357</v>
       </c>
       <c r="G22" t="n">
-        <v>0.690121501893505</v>
+        <v>0.4688953019550124</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7347547799115053</v>
+        <v>0.4600193760822782</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9329376275125564</v>
+        <v>0.4929735526631155</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7057942655820804</v>
+        <v>0.3813420979187925</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9327595455112726</v>
+        <v>0.6842793036963585</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7741405582447289</v>
+        <v>0.5459963967758672</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6593557588535919</v>
+        <v>0.5811989839450122</v>
       </c>
       <c r="N22" t="n">
-        <v>0.824584189504189</v>
+        <v>0.4630881110418874</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9078451559845507</v>
+        <v>0.6925955353275697</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8379675433892345</v>
+        <v>0.4529053948271916</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7034226418969691</v>
+        <v>0.7337960859423338</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8639664287309811</v>
+        <v>0.6691734520250632</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8633669900883857</v>
+        <v>0.4773013710375859</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8126511774981944</v>
+        <v>0.7910442576806831</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2405326770735225</v>
+        <v>0.5003419430879807</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6617480450751969</v>
+        <v>0.3942178315993712</v>
       </c>
       <c r="W22" t="n">
-        <v>0.7164965661548361</v>
+        <v>0.6571381727765617</v>
       </c>
       <c r="X22" t="n">
-        <v>0.6854976436496591</v>
+        <v>0.4624715697694731</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7064403414301026</v>
+        <v>0.4383802067465665</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.5561803247818011</v>
+        <v>0.4462219013592982</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.9791867012650779</v>
+        <v>0.4410426858849783</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.7369549041091651</v>
+        <v>0.6234993492220309</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.7367913862861235</v>
+        <v>0.4328261706501023</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.8198250034836784</v>
+        <v>0.5856408209508978</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.9277309347203382</v>
+        <v>0.5586199195059701</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9135573026864736</v>
+        <v>0.730186531451738</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8032788480739361</v>
+        <v>0.5090234925568304</v>
       </c>
       <c r="C23" t="n">
-        <v>0.794016605550267</v>
+        <v>0.3228571700594564</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6269333663635106</v>
+        <v>0.5034234717668673</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7729306864266718</v>
+        <v>0.4061509950201904</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6942227070781984</v>
+        <v>0.5718093105068884</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7018350701745042</v>
+        <v>0.4671371182098311</v>
       </c>
       <c r="H23" t="n">
-        <v>0.751428955062345</v>
+        <v>0.5348817563617602</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8340471226356763</v>
+        <v>0.503003008701768</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9179440827265387</v>
+        <v>0.4101340355687435</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8392558573320622</v>
+        <v>0.6740718396644455</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8860262900376066</v>
+        <v>0.4867155115623872</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7651871049718552</v>
+        <v>0.4750482940306654</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7428794674132254</v>
+        <v>0.4464735833530468</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9294440027204269</v>
+        <v>0.6792801249584248</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6640334688119951</v>
+        <v>0.4430925494952539</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7313231931755346</v>
+        <v>0.5250002338540961</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8178124078229452</v>
+        <v>0.4468936996007083</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9183223145658455</v>
+        <v>0.481700525888109</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8340176384582533</v>
+        <v>0.8484601157798153</v>
       </c>
       <c r="U23" t="n">
-        <v>0.5699481381814893</v>
+        <v>0.4681825345317079</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2371578986412147</v>
+        <v>0.3625657477524852</v>
       </c>
       <c r="W23" t="n">
-        <v>0.8456783217126097</v>
+        <v>0.6045996528646926</v>
       </c>
       <c r="X23" t="n">
-        <v>0.6601965597660986</v>
+        <v>0.3923432365970365</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5699382392706569</v>
+        <v>0.4348909820891328</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.5946833605319035</v>
+        <v>0.4614535278295827</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.8031947418732888</v>
+        <v>0.4593091648377906</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.7174531702676188</v>
+        <v>0.5081513706032732</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.5321248847077933</v>
+        <v>0.3850273748901498</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.7143791839105262</v>
+        <v>0.4151357855278116</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.7635605284627262</v>
+        <v>0.4650237116178292</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9391232372352565</v>
+        <v>0.5262072589660897</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9515756007125692</v>
+        <v>0.5304237052240227</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9661714961542742</v>
+        <v>0.4710953116194919</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7669835869593528</v>
+        <v>0.5162275131875084</v>
       </c>
       <c r="E24" t="n">
-        <v>1.003473057254339</v>
+        <v>0.5467687635564191</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6657160529717768</v>
+        <v>0.5691974577331741</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8291695360420585</v>
+        <v>0.4500139206420346</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8394799686589611</v>
+        <v>0.4290517402530702</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9160775991733481</v>
+        <v>0.540282614660042</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8587657840850269</v>
+        <v>0.4692893317828278</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8511147004588454</v>
+        <v>0.4771872950682708</v>
       </c>
       <c r="L24" t="n">
-        <v>0.898989644014078</v>
+        <v>0.4501182410507657</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7142478044487696</v>
+        <v>0.5070678151661907</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8138066580892767</v>
+        <v>0.4084001645796874</v>
       </c>
       <c r="O24" t="n">
-        <v>1.029108456817951</v>
+        <v>0.6064609846131926</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7983237207137212</v>
+        <v>0.4989280321797707</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9000834181370934</v>
+        <v>0.5884926072050451</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9163054460691171</v>
+        <v>0.7285379205847482</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9889885743019847</v>
+        <v>0.5206719415614314</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8795579805581499</v>
+        <v>0.803871770533412</v>
       </c>
       <c r="U24" t="n">
-        <v>0.7000108954543569</v>
+        <v>0.6176164678043796</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8488648735901334</v>
+        <v>0.5250366163465778</v>
       </c>
       <c r="W24" t="n">
-        <v>0.2459355971951255</v>
+        <v>0.723859345352402</v>
       </c>
       <c r="X24" t="n">
-        <v>0.7583758333905665</v>
+        <v>0.4234524364237205</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9295520943315204</v>
+        <v>0.4958773039742593</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.7609295912422402</v>
+        <v>0.4514176484495301</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9399128064760616</v>
+        <v>0.6002656398003242</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.6795957821633549</v>
+        <v>0.5779619791860923</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8070348381542338</v>
+        <v>0.5147148137024209</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.8655043603521539</v>
+        <v>0.5880971346318526</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.9673758624657599</v>
+        <v>0.4595906129984243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8567734492507675</v>
+        <v>0.5379097409061182</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8655985238696855</v>
+        <v>0.4498550220673778</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8830828795400457</v>
+        <v>0.3459724989012779</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7007218564905856</v>
+        <v>0.3690691187817123</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9512436086670499</v>
+        <v>0.4181376627206987</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8222583386831918</v>
+        <v>0.5626806794453668</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8302166226007317</v>
+        <v>0.5040909080308584</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9708252643780582</v>
+        <v>0.5021658366729141</v>
       </c>
       <c r="I25" t="n">
-        <v>0.837452701928567</v>
+        <v>0.4717974890267017</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9228638314434588</v>
+        <v>0.2635936630538587</v>
       </c>
       <c r="K25" t="n">
-        <v>0.988086656529361</v>
+        <v>0.7152789819311358</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9258606270430011</v>
+        <v>0.4798069126438221</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8861734812202829</v>
+        <v>0.4605256908863282</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9288833160139833</v>
+        <v>0.4216917465946718</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8682042283697666</v>
+        <v>0.6940694422515843</v>
       </c>
       <c r="P25" t="n">
-        <v>0.9386829558797533</v>
+        <v>0.3950043612126032</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7393901107781073</v>
+        <v>0.5787345675230309</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8459188331580944</v>
+        <v>0.5466770608215702</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8501252821176835</v>
+        <v>0.4887352060252861</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7490206677020319</v>
+        <v>0.7980183543517063</v>
       </c>
       <c r="U25" t="n">
-        <v>0.7412511913733668</v>
+        <v>0.3978955647148903</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5495080244074029</v>
+        <v>0.3057384042582934</v>
       </c>
       <c r="W25" t="n">
-        <v>0.8557054477941718</v>
+        <v>0.6413596459142448</v>
       </c>
       <c r="X25" t="n">
-        <v>0.2607172097184063</v>
+        <v>0.3208371750180021</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.740547166387146</v>
+        <v>0.4776543279421747</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.6814521319764353</v>
+        <v>0.3095160065000647</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9009823032984152</v>
+        <v>0.396163224661924</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.9424324774388766</v>
+        <v>0.509579732411609</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6792861392665057</v>
+        <v>0.3507884478838172</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.7710942464506263</v>
+        <v>0.2830953588255221</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.8578524684250188</v>
+        <v>0.4636403466225045</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8723973261072471</v>
+        <v>0.5514591853335276</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8893780523381181</v>
+        <v>0.5318607337386156</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8065279146133914</v>
+        <v>0.5781409787137793</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7001290933559379</v>
+        <v>0.4456632923649709</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7066220453934402</v>
+        <v>0.5225564746772762</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7719549584610294</v>
+        <v>0.6659276739181362</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7715121126310529</v>
+        <v>0.6171783583626013</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7561138210389251</v>
+        <v>0.6658582033666636</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8648683454810688</v>
+        <v>0.5183046415749699</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8074674787590327</v>
+        <v>0.498314080906842</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9623446734812886</v>
+        <v>0.7759473905273426</v>
       </c>
       <c r="L26" t="n">
-        <v>0.79509736749406</v>
+        <v>0.5394116830259207</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7948813036527553</v>
+        <v>0.5759383733113768</v>
       </c>
       <c r="N26" t="n">
-        <v>0.922865701534163</v>
+        <v>0.5130927135700414</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9379891125463318</v>
+        <v>0.7430680803718921</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8094663232489356</v>
+        <v>0.5205873591666681</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7793402520207756</v>
+        <v>0.7166406026205183</v>
       </c>
       <c r="R26" t="n">
-        <v>0.819141272908563</v>
+        <v>0.5531241061199104</v>
       </c>
       <c r="S26" t="n">
-        <v>0.7840289481301617</v>
+        <v>0.7364461398790397</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6735920344660096</v>
+        <v>0.8611795822318314</v>
       </c>
       <c r="U26" t="n">
-        <v>0.7565097074057938</v>
+        <v>0.4655347614097644</v>
       </c>
       <c r="V26" t="n">
-        <v>0.636673882583348</v>
+        <v>0.5522120979960419</v>
       </c>
       <c r="W26" t="n">
-        <v>0.8326718556794657</v>
+        <v>0.6729944599263415</v>
       </c>
       <c r="X26" t="n">
-        <v>0.8168677809274514</v>
+        <v>0.5277360620152882</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2130940403730682</v>
+        <v>0.5971381599224203</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.7851556767829946</v>
+        <v>0.4998809121609971</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.8551484907169233</v>
+        <v>0.5504657869175684</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.7473799189142665</v>
+        <v>0.6623727256817284</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.6698271383893849</v>
+        <v>0.4668512487138502</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.6736669031006528</v>
+        <v>0.6077945451689584</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.8345018953865551</v>
+        <v>0.534846418720499</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8814805907778372</v>
+        <v>0.5221371868546167</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8475608315842872</v>
+        <v>0.5686492486767047</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9287311089879052</v>
+        <v>0.5396129739523972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4672689525959928</v>
+        <v>0.4763867110500705</v>
       </c>
       <c r="E27" t="n">
-        <v>0.903420048268135</v>
+        <v>0.5109299230958456</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8697393865102077</v>
+        <v>0.6257783538523161</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7893272072403431</v>
+        <v>0.5653460745500976</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8231961149915565</v>
+        <v>0.5970064855305734</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8703205512425551</v>
+        <v>0.5456590438514441</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7718336842255891</v>
+        <v>0.396502703975613</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9406164460528728</v>
+        <v>0.6419445432391691</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9372777680655517</v>
+        <v>0.5700739735279829</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9324845338203201</v>
+        <v>0.5314498024963065</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8662297477525678</v>
+        <v>0.5094520305406341</v>
       </c>
       <c r="O27" t="n">
-        <v>1.028224619127124</v>
+        <v>0.6465978849587209</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7788455930835625</v>
+        <v>0.5448345126409272</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.698491565566925</v>
+        <v>0.6285913509275928</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8926831529746246</v>
+        <v>0.6439079996388524</v>
       </c>
       <c r="S27" t="n">
-        <v>1.04571624563058</v>
+        <v>0.6425441686299452</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9123163865743547</v>
+        <v>0.8760512259563429</v>
       </c>
       <c r="U27" t="n">
-        <v>0.5945235341566328</v>
+        <v>0.5320724530204406</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7263220959146284</v>
+        <v>0.4747485926304628</v>
       </c>
       <c r="W27" t="n">
-        <v>0.828416824929861</v>
+        <v>0.6551724394267022</v>
       </c>
       <c r="X27" t="n">
-        <v>0.7949981983334368</v>
+        <v>0.4645311618053439</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.8048109571493439</v>
+        <v>0.5657835467016928</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.2817673023362975</v>
+        <v>0.432094671182399</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.003445241752036</v>
+        <v>0.5183556662090063</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.7130380113970911</v>
+        <v>0.6613632566103929</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.7694717661980137</v>
+        <v>0.4648778405324394</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.8529485344600496</v>
+        <v>0.5790465666000083</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.7313101251475184</v>
+        <v>0.4997414597122721</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9190805057052343</v>
+        <v>0.5966036920720517</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6785228924865505</v>
+        <v>0.4557098283199679</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9113239507890702</v>
+        <v>0.5704273658523731</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8551114325954557</v>
+        <v>0.5157320801088385</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6170429192656486</v>
+        <v>0.5349854875753114</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8026890066776822</v>
+        <v>0.502537891286659</v>
       </c>
       <c r="G28" t="n">
-        <v>0.77768830189823</v>
+        <v>0.3528938781325274</v>
       </c>
       <c r="H28" t="n">
-        <v>0.903727957557937</v>
+        <v>0.5655682009816152</v>
       </c>
       <c r="I28" t="n">
-        <v>1.027341317561321</v>
+        <v>0.5371238061538678</v>
       </c>
       <c r="J28" t="n">
-        <v>1.012393847653049</v>
+        <v>0.4556162135325094</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5834884088658692</v>
+        <v>0.6988211164654584</v>
       </c>
       <c r="L28" t="n">
-        <v>0.981607907449103</v>
+        <v>0.5001576254983963</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8756642552535074</v>
+        <v>0.6311198716610875</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6288251675984335</v>
+        <v>0.4647583545083596</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9141329993835664</v>
+        <v>0.6186378342091419</v>
       </c>
       <c r="P28" t="n">
-        <v>0.684483008711496</v>
+        <v>0.4641041710933865</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.8823777162496631</v>
+        <v>0.6072315803693747</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6558919484140482</v>
+        <v>0.6770724920544113</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9372774075943437</v>
+        <v>0.4523918548320113</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8917925245572513</v>
+        <v>0.738562219132316</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8613580209632107</v>
+        <v>0.5252455027404184</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8515688243660308</v>
+        <v>0.4689182950285405</v>
       </c>
       <c r="W28" t="n">
-        <v>0.8211902123612864</v>
+        <v>0.6001151536336482</v>
       </c>
       <c r="X28" t="n">
-        <v>0.8361826366447822</v>
+        <v>0.5328853485142488</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.8158325102884436</v>
+        <v>0.4166066801834174</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.9443261333277528</v>
+        <v>0.416323334173983</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.1767792623358805</v>
+        <v>0.4163915041269746</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.673097903270133</v>
+        <v>0.5336687945463301</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.8673822876326273</v>
+        <v>0.520648818635672</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.9029666714018136</v>
+        <v>0.5495018632277213</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.8028071015886237</v>
+        <v>0.439914064914394</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9511597021158644</v>
+        <v>0.6466523470184293</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7014456502036532</v>
+        <v>0.6504551440728499</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9960957912631574</v>
+        <v>0.6238355890425318</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5911269050803911</v>
+        <v>0.6188216151501398</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9380477747404186</v>
+        <v>0.7798811800106407</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8882657933522178</v>
+        <v>0.7743416398986849</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6679080752399364</v>
+        <v>0.6835866466888108</v>
       </c>
       <c r="H29" t="n">
-        <v>0.875269262518102</v>
+        <v>0.7167153278508633</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9477910631670873</v>
+        <v>0.6476690751154263</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8569971872222207</v>
+        <v>0.6518114674872739</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7127549312759847</v>
+        <v>0.6210868741824312</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8588726492766512</v>
+        <v>0.770736801055347</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7489208346358605</v>
+        <v>0.6480014983331059</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7537145587773637</v>
+        <v>0.679997635222084</v>
       </c>
       <c r="O29" t="n">
-        <v>1.11003758876915</v>
+        <v>0.717734543596918</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6211726974365184</v>
+        <v>0.6701284504675858</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.023483716134109</v>
+        <v>0.8900162181651776</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8276806647489993</v>
+        <v>0.7881976072565907</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9538643737398234</v>
+        <v>0.7220697996924226</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8733326741219075</v>
+        <v>0.7471623137973959</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7940904000186947</v>
+        <v>0.7592546977932096</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8767902379403583</v>
+        <v>0.7365620666405422</v>
       </c>
       <c r="W29" t="n">
-        <v>0.5314118528470675</v>
+        <v>0.7786745146795433</v>
       </c>
       <c r="X29" t="n">
-        <v>0.9120492270086918</v>
+        <v>0.6276407850251704</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8746464119581957</v>
+        <v>0.6434446645348384</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.7706514006671141</v>
+        <v>0.7372494696139658</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.8266031936954353</v>
+        <v>0.7048298253942878</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1983375557267605</v>
+        <v>0.7493255980043766</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.7743047406131447</v>
+        <v>0.6564024797185395</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.9312114455244173</v>
+        <v>0.727008554888966</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.9190601501457101</v>
+        <v>0.6838756237883995</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9387736690984114</v>
+        <v>0.5360823056779518</v>
       </c>
       <c r="B30" t="n">
-        <v>0.910280384518539</v>
+        <v>0.483879899471704</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9842676845013101</v>
+        <v>0.4909588932643492</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6709959081123691</v>
+        <v>0.3485847098831895</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9531130965447271</v>
+        <v>0.4173132086255216</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8483358648247659</v>
+        <v>0.451497407827441</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8109036085340211</v>
+        <v>0.4802120016243469</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9645917910175036</v>
+        <v>0.5453765561025326</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8030470990334464</v>
+        <v>0.4739277711176249</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7989839718508971</v>
+        <v>0.4205283893541479</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9496472292738887</v>
+        <v>0.7170187546954176</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9873452475836075</v>
+        <v>0.4744699258746214</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8192422761842069</v>
+        <v>0.5586210661400693</v>
       </c>
       <c r="N30" t="n">
-        <v>0.973075981692028</v>
+        <v>0.3789285022152441</v>
       </c>
       <c r="O30" t="n">
-        <v>1.042670330154412</v>
+        <v>0.5791795036473963</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8726301676461212</v>
+        <v>0.445773972728236</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8636899502813498</v>
+        <v>0.5607701137310586</v>
       </c>
       <c r="R30" t="n">
-        <v>0.8823425116909924</v>
+        <v>0.6064000390084181</v>
       </c>
       <c r="S30" t="n">
-        <v>1.064492964601592</v>
+        <v>0.5642016063773668</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8728052303746211</v>
+        <v>0.8520770570245366</v>
       </c>
       <c r="U30" t="n">
-        <v>0.6424968200448944</v>
+        <v>0.4380440940914078</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7244360165034316</v>
+        <v>0.4583754236856041</v>
       </c>
       <c r="W30" t="n">
-        <v>0.8741479956076609</v>
+        <v>0.605606587733559</v>
       </c>
       <c r="X30" t="n">
-        <v>0.6854722221706873</v>
+        <v>0.3669316079247754</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.8052538167526351</v>
+        <v>0.4804672806866005</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.7490281999024557</v>
+        <v>0.3257231506003598</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.94037392077408</v>
+        <v>0.4741662474604316</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.7498380564599477</v>
+        <v>0.5475083125054621</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.2648712507584775</v>
+        <v>0.3943675874141929</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.040221368464853</v>
+        <v>0.4909547529258291</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.7129021301805778</v>
+        <v>0.460938389123176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9633745796488041</v>
+        <v>0.5962321661593053</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7332881073686854</v>
+        <v>0.4272705579681093</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7210971119096251</v>
+        <v>0.3809978644971432</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8474571707572222</v>
+        <v>0.4289012738345592</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8984291873386691</v>
+        <v>0.4373359179005085</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7818137079396754</v>
+        <v>0.5393044460693714</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7999361932246651</v>
+        <v>0.5057435309041709</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6921183869398302</v>
+        <v>0.5261063382670476</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9334174016083683</v>
+        <v>0.4967250460460216</v>
       </c>
       <c r="J31" t="n">
-        <v>1.069282030453752</v>
+        <v>0.2955953881916946</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9328393117289195</v>
+        <v>0.6540635191948752</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8322022244121471</v>
+        <v>0.4552699295322875</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7701987066983114</v>
+        <v>0.4858233202270121</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7866163269208697</v>
+        <v>0.4416889830620148</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9561995711934321</v>
+        <v>0.6690164969085732</v>
       </c>
       <c r="P31" t="n">
-        <v>0.794838942012186</v>
+        <v>0.4834322184805198</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.8816566549771604</v>
+        <v>0.5884820853310423</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9096848638037424</v>
+        <v>0.5027244938898947</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6729690070539752</v>
+        <v>0.5754031538001378</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7076793843506292</v>
+        <v>0.7700145221970425</v>
       </c>
       <c r="U31" t="n">
-        <v>0.8729880371318418</v>
+        <v>0.4571249892193264</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7107573399533956</v>
+        <v>0.3694458476205159</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8569982380747598</v>
+        <v>0.5412392983710743</v>
       </c>
       <c r="X31" t="n">
-        <v>0.7017706701761468</v>
+        <v>0.3385645154840126</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.6078390238862806</v>
+        <v>0.4279364085975983</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.9002915933570266</v>
+        <v>0.393964358692923</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.8606181159443991</v>
+        <v>0.406459689061032</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.7852065459691672</v>
+        <v>0.5863295156770176</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.8577087550708944</v>
+        <v>0.3553496404833723</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.2005420150713165</v>
+        <v>0.3466342694781706</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.9492006502106828</v>
+        <v>0.470935989177297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9427301319304829</v>
+        <v>0.5397762679446957</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8485937784651234</v>
+        <v>0.439044012500836</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9280611365614252</v>
+        <v>0.2659288363984167</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5461441023878471</v>
+        <v>0.4097827909421661</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7442888397784901</v>
+        <v>0.3320091520985702</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6584490277659323</v>
+        <v>0.4314411727624989</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8216349018651296</v>
+        <v>0.4262515650406546</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8635843961281158</v>
+        <v>0.4718114083260153</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9478791802534091</v>
+        <v>0.4256829895314791</v>
       </c>
       <c r="J32" t="n">
-        <v>0.943380108864982</v>
+        <v>0.3186909160936181</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8642533841080274</v>
+        <v>0.5873248696238242</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9106842038835556</v>
+        <v>0.3954096658324439</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8120864639760779</v>
+        <v>0.4071483461060167</v>
       </c>
       <c r="N32" t="n">
-        <v>0.7470850920465593</v>
+        <v>0.3504617972164549</v>
       </c>
       <c r="O32" t="n">
-        <v>1.02969250719607</v>
+        <v>0.6026271719077474</v>
       </c>
       <c r="P32" t="n">
-        <v>0.6744277237106853</v>
+        <v>0.3864754710705884</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6214105225731168</v>
+        <v>0.4597354246946845</v>
       </c>
       <c r="R32" t="n">
-        <v>0.9297673973050997</v>
+        <v>0.512391840924074</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9461245500672011</v>
+        <v>0.4586367474310138</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8851442605126315</v>
+        <v>0.769474932360385</v>
       </c>
       <c r="U32" t="n">
-        <v>0.7672029686098871</v>
+        <v>0.4034806421367597</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8219697241402595</v>
+        <v>0.3505764298229183</v>
       </c>
       <c r="W32" t="n">
-        <v>0.8611952352398055</v>
+        <v>0.6631340310927782</v>
       </c>
       <c r="X32" t="n">
-        <v>0.84164488940727</v>
+        <v>0.2762383464987513</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.815808432237373</v>
+        <v>0.4530386689519792</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.6391611458058534</v>
+        <v>0.2650629346387753</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7759147310382005</v>
+        <v>0.4059714101268506</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.7445389037145981</v>
+        <v>0.5063814349637674</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.6970901677496397</v>
+        <v>0.2742380347213709</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.8269908310141374</v>
+        <v>0.3354075386066876</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.1985947162104545</v>
+        <v>0.352314157486207</v>
       </c>
     </row>
   </sheetData>
